--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -120,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +147,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -179,6 +188,215 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -186,12 +404,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:E16"/>
+  <dimension ref="B9:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,10 +779,10 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
@@ -526,6 +793,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -534,20 +803,28 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -558,6 +835,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -566,6 +845,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>22</v>
       </c>
@@ -573,7 +854,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -581,229 +872,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L11"/>
+  <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="12" max="12" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F2" s="14"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="21"/>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="24"/>
+      <c r="H3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="I3" s="21"/>
+      <c r="J3" s="16">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="11">
         <v>40</v>
       </c>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <v>220</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f>D4*E3</f>
         <v>1100</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="17">
         <v>28</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <f>J4*K3</f>
         <v>1120</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17">
         <v>300</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <f>D5</f>
         <v>300</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="17">
         <v>300</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <f>J5</f>
         <v>300</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="18">
         <f>D5/D4</f>
         <v>1.3636363636363635</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <f>E5/E4</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="18">
         <f>J5/J4</f>
         <v>10.714285714285714</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="7">
         <f>K5/K4</f>
         <v>0.26785714285714285</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <v>220</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <f>D7*E3</f>
         <v>1100</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="17">
         <v>28</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f>J7*K3</f>
         <v>1120</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <v>150</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <f>D8</f>
         <v>150</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="17">
         <v>150</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f>J8</f>
         <v>150</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="19">
         <f>D8/D7</f>
         <v>0.68181818181818177</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <f>E8/E7</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="19">
         <f>J8/J7</f>
         <v>5.3571428571428568</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="9">
         <f>K8/K7</f>
         <v>0.13392857142857142</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -811,11 +1125,21 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>20800</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H4:H6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Check list" sheetId="1" r:id="rId1"/>
     <sheet name="Power" sheetId="2" r:id="rId2"/>
+    <sheet name="Snubber Review" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Board dead 원인 파악</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,6 +112,57 @@
   </si>
   <si>
     <t>통신 error 발생은 MCU board의 damage인지 확인 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zener Diode Vz=10V Izsm=454mA 1W 5% DO-41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4740A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onsemi</t>
+  </si>
+  <si>
+    <t>Zener Diode Vz=15V Izsm=304mA 1W 5% DO-41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4744A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Snubber 회로 추가시 Vgs 변화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Snubber 회로 검토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; Pulse Off시 역으로 걸리는 전압이 떨어진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) Snubber 회로 추가시 전류 변화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; FET의 전류가 삼각파 형태를 띄며, Low FET의 경우에는 전류 방향이 반대로 흐른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; FET의 전류가 구형파 형태를 띄며, Low FET도 정상 방향으로 흐른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) Snubber 회로 추가시 Transformer 전류 변화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; Snubber가 없는 경우, Transformer의 전류가 안정화되지 않는다. Snubber 추가시 0.4msec내에 안정화 된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +204,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -404,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,25 +484,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,12 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,6 +510,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -467,6 +541,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFB7DEE8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -476,6 +556,689 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1514475" y="1209675"/>
+          <a:ext cx="7591425" cy="6048375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9439275" y="1133475"/>
+          <a:ext cx="8315325" cy="6105525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="2028825"/>
+          <a:ext cx="838200" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B7DEE8">
+            <a:alpha val="43922"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14658975" y="4648200"/>
+          <a:ext cx="838200" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B7DEE8">
+            <a:alpha val="43922"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1162050" y="7419975"/>
+          <a:ext cx="13458825" cy="5524500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>16965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1123951" y="13763625"/>
+          <a:ext cx="6153150" cy="5112840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>125274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>518578</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7400924" y="13746024"/>
+          <a:ext cx="9243479" cy="3741876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>183959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1152525" y="19621501"/>
+          <a:ext cx="6105525" cy="4870258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277511</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7487936" y="19535776"/>
+          <a:ext cx="9771363" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>68714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1143001" y="29051250"/>
+          <a:ext cx="11506200" cy="4545464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>86051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6562725" y="24784050"/>
+          <a:ext cx="4333875" cy="4010351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>681053</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1171575" y="24803100"/>
+          <a:ext cx="4662503" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -779,10 +1542,10 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
@@ -793,8 +1556,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -803,28 +1566,28 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -835,8 +1598,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -845,8 +1608,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" t="s">
         <v>22</v>
       </c>
@@ -855,8 +1618,8 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -875,7 +1638,7 @@
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -886,238 +1649,238 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="20"/>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="16">
+      <c r="C3" s="22"/>
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="17"/>
+      <c r="H3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="16">
+      <c r="I3" s="22"/>
+      <c r="J3" s="11">
         <v>1</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="7">
         <v>40</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <v>220</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>D4*E3</f>
         <v>1100</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <v>28</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>J4*K3</f>
         <v>1120</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="12">
         <v>300</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>D5</f>
         <v>300</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="12">
         <v>300</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>J5</f>
         <v>300</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="13">
         <f>D5/D4</f>
         <v>1.3636363636363635</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <f>E5/E4</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="22" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="13">
         <f>J5/J4</f>
         <v>10.714285714285714</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <f>K5/K4</f>
         <v>0.26785714285714285</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>220</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f>D7*E3</f>
         <v>1100</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <v>28</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f>J7*K3</f>
         <v>1120</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <v>150</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>D8</f>
         <v>150</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="12">
         <v>150</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f>J8</f>
         <v>150</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <f>D8/D7</f>
         <v>0.68181818181818177</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <f>E8/E7</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="14">
         <f>J8/J7</f>
         <v>5.3571428571428568</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <f>K8/K7</f>
         <v>0.13392857142857142</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1143,4 +1906,103 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Board dead 원인 파악</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,6 +163,38 @@
   </si>
   <si>
     <t>=&gt; Snubber가 없는 경우, Transformer의 전류가 안정화되지 않는다. Snubber 추가시 0.4msec내에 안정화 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -510,6 +542,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,9 +566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1542,10 +1574,10 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="18">
+      <c r="B9" s="21">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
@@ -1556,8 +1588,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -1566,28 +1598,28 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="18">
+      <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1598,8 +1630,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -1608,8 +1640,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" t="s">
         <v>22</v>
       </c>
@@ -1618,8 +1650,8 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1638,7 +1670,7 @@
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1649,8 +1681,8 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
@@ -1658,8 +1690,8 @@
         <v>14</v>
       </c>
       <c r="F2" s="9"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
@@ -1669,10 +1701,10 @@
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11">
         <v>1</v>
       </c>
@@ -1680,10 +1712,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="11">
         <v>1</v>
       </c>
@@ -1693,23 +1725,23 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="12">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4">
         <f>D4*E3</f>
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="15" t="s">
@@ -1727,7 +1759,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1773,7 @@
       <c r="F5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="15" t="s">
         <v>10</v>
       </c>
@@ -1757,22 +1789,22 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="13">
         <f>D5/D4</f>
-        <v>1.3636363636363635</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <f>E5/E4</f>
-        <v>0.27272727272727271</v>
+        <v>0.4</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="15" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1821,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1805,7 +1837,7 @@
       <c r="F7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="26" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="15" t="s">
@@ -1823,7 +1855,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1837,7 +1869,7 @@
       <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +1885,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
@@ -1868,7 +1900,7 @@
       <c r="F9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
@@ -1913,7 +1945,7 @@
   <dimension ref="B4:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1922,42 +1954,42 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1971,15 +2003,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E4"/>
+  <dimension ref="C3:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -1990,7 +2022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -1999,6 +2031,57 @@
       </c>
       <c r="E4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>600</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <f>D7*(G8/G7)</f>
+        <v>750</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <f>D8^2*I7/(D7^2)</f>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Check list" sheetId="1" r:id="rId1"/>
     <sheet name="Power" sheetId="2" r:id="rId2"/>
     <sheet name="Snubber Review" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Transformer" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Board dead 원인 파악</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +196,26 @@
   </si>
   <si>
     <t>uH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductance[uH]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency[KHz]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차측</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차측</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductance[mH]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -500,6 +521,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -507,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,6 +647,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1316,7 +1411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1351,7 +1446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2005,7 +2100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -2088,4 +2183,112 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34">
+        <v>100</v>
+      </c>
+      <c r="C6" s="35">
+        <v>983</v>
+      </c>
+      <c r="D6" s="34">
+        <v>100</v>
+      </c>
+      <c r="E6" s="35">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="30">
+        <v>10</v>
+      </c>
+      <c r="C7" s="31">
+        <v>597</v>
+      </c>
+      <c r="D7" s="30">
+        <v>10</v>
+      </c>
+      <c r="E7" s="31">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31">
+        <v>594</v>
+      </c>
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="C9" s="33">
+        <v>594</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="E9" s="33">
+        <v>15.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -1,239 +1,270 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Check list" sheetId="1" r:id="rId1"/>
+    <sheet name="Transformer" sheetId="5" r:id="rId1"/>
     <sheet name="Power" sheetId="2" r:id="rId2"/>
     <sheet name="Snubber Review" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Transformer" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
-  <si>
-    <t>Board dead 원인 파악</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC-DC Regulator가 dead 되는지 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FST10-5FFM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fuse dead 발생 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>250VAC 5A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회로 보강</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+5V, +15V DC/DC output에 콘덴서 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15V bias Transistor에 Bias 저항 필요 여부 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q1,Q2,Q3,Q4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+  <si>
+    <t>Zener Diode Vz=10V Izsm=454mA 1W 5% DO-41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4740A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onsemi</t>
+  </si>
+  <si>
+    <t>Zener Diode Vz=15V Izsm=304mA 1W 5% DO-41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4744A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Snubber 회로 추가시 Vgs 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Snubber 회로 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; Pulse Off시 역으로 걸리는 전압이 떨어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) Snubber 회로 추가시 전류 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; FET의 전류가 삼각파 형태를 띄며, Low FET의 경우에는 전류 방향이 반대로 흐른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; FET의 전류가 구형파 형태를 띄며, Low FET도 정상 방향으로 흐른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) Snubber 회로 추가시 Transformer 전류 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; Snubber가 없는 경우, Transformer의 전류가 안정화되지 않는다. Snubber 추가시 0.4msec내에 안정화 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductance[uH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency[KHz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductance[mH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Generator Power Set-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse width[usec]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-Time[usec]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Generator Transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; 100KHz에서 inductance가 두배로 상승함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Inductance Vs Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse/Full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10% duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Output</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer 1,2차 coil중 어느쪽이 dead되는지 확인 - 1차측이 죽을 것으로 예상됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAS_6-NP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차측은 전류가 낮으므로 current detect이 안될것으로 판단됨 - 1차측에 연결 검토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신 error 발생은 MCU board의 damage인지 확인 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zener Diode Vz=10V Izsm=454mA 1W 5% DO-41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N4740A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Onsemi</t>
-  </si>
-  <si>
-    <t>Zener Diode Vz=15V Izsm=304mA 1W 5% DO-41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N4744A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) Snubber 회로 추가시 Vgs 변화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Snubber 회로 검토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; Pulse Off시 역으로 걸리는 전압이 떨어진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) Snubber 회로 추가시 전류 변화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; FET의 전류가 삼각파 형태를 띄며, Low FET의 경우에는 전류 방향이 반대로 흐른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; FET의 전류가 구형파 형태를 띄며, Low FET도 정상 방향으로 흐른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) Snubber 회로 추가시 Transformer 전류 변화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; Snubber가 없는 경우, Transformer의 전류가 안정화되지 않는다. Snubber 추가시 0.4msec내에 안정화 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inductance[uH]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frequency[KHz]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차측</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차측</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inductance[mH]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220VAC Regulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vtran_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vtran_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itran_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="4">
+    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,11 +278,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -281,15 +307,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -404,11 +436,26 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -417,11 +464,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -436,7 +500,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -445,13 +509,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -463,75 +542,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -540,130 +554,65 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,6 +635,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14258925" y="533400"/>
+          <a:ext cx="1943100" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1411,7 +1420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1446,7 +1455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1655,383 +1664,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:E17"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="21">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="10">
+        <v>100</v>
+      </c>
+      <c r="E6" s="11">
+        <v>983</v>
+      </c>
+      <c r="F6" s="10">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>597</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E8" s="7">
+        <v>594</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="21">
-        <v>2</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="G8" s="7">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E9" s="9">
+        <v>594</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="9">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
+  <mergeCells count="2">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L11"/>
+  <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="12" max="12" width="9" style="3"/>
+    <col min="1" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="4.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="H3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7">
+    <row r="2" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1">
+        <v>220</v>
+      </c>
+      <c r="M4" s="1">
+        <v>220</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="30">
+        <f>L4*(2^0.5)</f>
+        <v>311.12698372208092</v>
+      </c>
+      <c r="M5" s="1">
+        <v>220</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D6" s="20">
+        <v>50</v>
+      </c>
+      <c r="E6" s="21">
+        <v>10</v>
+      </c>
+      <c r="F6" s="21">
+        <v>2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>82</v>
+      </c>
+      <c r="H6">
+        <f>G6/E6</f>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>182</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H8" si="0">G7/E7</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="16">
+        <v>100</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>900</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1">
+        <v>150</v>
+      </c>
+      <c r="M8">
+        <v>220</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="1">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="30">
+        <f>L8*L9</f>
+        <v>3000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D11" s="20">
+        <v>50</v>
+      </c>
+      <c r="E11" s="21">
+        <v>20</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+      <c r="G11" s="22">
+        <v>182</v>
+      </c>
+      <c r="H11">
+        <f>G11/E11</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="8">
+        <v>30</v>
+      </c>
+      <c r="E12" s="16">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <f>G12/E12*F12</f>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>500</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>5000</v>
+      </c>
+      <c r="F17">
+        <v>5000</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>220</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <f>1/E17*1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="F18">
+        <f>1/F17*1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="27">
+        <f>K16/K17</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <f>1/E19*1000</f>
+        <v>20</v>
+      </c>
+      <c r="F20" s="28">
+        <f>1/F19*1000</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12">
-        <v>150</v>
-      </c>
-      <c r="E4" s="4">
-        <f>D4*E3</f>
-        <v>750</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="12">
-        <v>28</v>
-      </c>
-      <c r="K4" s="4">
-        <f>J4*K3</f>
-        <v>1120</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12">
-        <v>300</v>
-      </c>
-      <c r="E5" s="4">
-        <f>D5</f>
-        <v>300</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="12">
-        <v>300</v>
-      </c>
-      <c r="K5" s="4">
-        <f>J5</f>
-        <v>300</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13">
-        <f>D5/D4</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <f>E5/E4</f>
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="13">
-        <f>J5/J4</f>
-        <v>10.714285714285714</v>
-      </c>
-      <c r="K6" s="5">
-        <f>K5/K4</f>
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="E21">
+        <f>E20/E17</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="26">
+        <f>F20/F17</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <f>E21*0.1</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F22" s="25">
+        <f>F21*0.1</f>
+        <v>6.6666666666666675E-4</v>
+      </c>
+      <c r="K22">
         <v>220</v>
       </c>
-      <c r="E7" s="4">
-        <f>D7*E3</f>
-        <v>1100</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="12">
-        <v>28</v>
-      </c>
-      <c r="K7" s="4">
-        <f>J7*K3</f>
-        <v>1120</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="12">
-        <v>150</v>
-      </c>
-      <c r="E8" s="4">
-        <f>D8</f>
-        <v>150</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="12">
-        <v>150</v>
-      </c>
-      <c r="K8" s="4">
-        <f>J8</f>
-        <v>150</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27"/>
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14">
-        <f>D8/D7</f>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="E9" s="6">
-        <f>E8/E7</f>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="14">
-        <f>J8/J7</f>
-        <v>5.3571428571428568</v>
-      </c>
-      <c r="K9" s="6">
-        <f>K8/K7</f>
-        <v>0.13392857142857142</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20800</v>
+      <c r="L22" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f>E22*500</f>
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="25">
+        <f>F22*500</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="K23">
+        <f>K22^2</f>
+        <v>48400</v>
+      </c>
+      <c r="L23" s="1">
+        <f>L22*(2^0.5)</f>
+        <v>311.12698372208092</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f>K23/2</f>
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f>K24^0.5</f>
+        <v>155.56349186104046</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H4:H6"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2049,47 +2192,47 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>30</v>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="18" t="s">
-        <v>29</v>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="19" t="s">
-        <v>31</v>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="18" t="s">
-        <v>32</v>
+      <c r="C65" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="20" t="s">
-        <v>33</v>
+      <c r="C66" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="19" t="s">
-        <v>34</v>
+      <c r="C93" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="18" t="s">
-        <v>35</v>
+      <c r="C118" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="19" t="s">
-        <v>36</v>
+      <c r="C119" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2108,71 +2251,71 @@
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <f>D7*(G8/G7)</f>
         <v>750</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <f>D8^2*I7/(D7^2)</f>
@@ -2180,115 +2323,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
-        <v>100</v>
-      </c>
-      <c r="C6" s="35">
-        <v>983</v>
-      </c>
-      <c r="D6" s="34">
-        <v>100</v>
-      </c>
-      <c r="E6" s="35">
-        <v>24.19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="30">
-        <v>10</v>
-      </c>
-      <c r="C7" s="31">
-        <v>597</v>
-      </c>
-      <c r="D7" s="30">
-        <v>10</v>
-      </c>
-      <c r="E7" s="31">
-        <v>14.96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="30">
-        <v>1</v>
-      </c>
-      <c r="C8" s="31">
-        <v>594</v>
-      </c>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="31">
-        <v>14.96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="32">
-        <v>0.12</v>
-      </c>
-      <c r="C9" s="33">
-        <v>594</v>
-      </c>
-      <c r="D9" s="32">
-        <v>0.12</v>
-      </c>
-      <c r="E9" s="33">
-        <v>15.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Transformer" sheetId="5" r:id="rId1"/>
-    <sheet name="Power" sheetId="2" r:id="rId2"/>
-    <sheet name="Snubber Review" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Power" sheetId="2" r:id="rId1"/>
+    <sheet name="Transformer" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Snubber Review" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>Zener Diode Vz=10V Izsm=454mA 1W 5% DO-41</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,18 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Power[W]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pulse width[usec]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On-Time[usec]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LF Generator Transformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,11 +143,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Full width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full Frequency</t>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vtran_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vtran_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itran_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220VAC는 RMS value이며, 정류시 Peak Voltage이 311VDC가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Half Bridge 방식으므 Vout/2기준으로 Vout과 0V로 스위칭 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2/N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse Duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse가 1주기당 2ea가 발생하므로 Total Duty는 Pulse Duty x 2 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,47 +255,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pulse width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pulse/Full</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10% duty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VDC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iin</t>
+    <t>Pulse Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itran_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power
+[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse width
+[usec]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-Time
+[usec]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_target / P_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_peak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Power에 따른 On Time 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; Origin은 220VAC rms value로 계산했기 때문에 맞지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; 실측 Itran_out에 맞춰 Power를 계산하여 V1.0과 비슷한 결과가 나온것임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse의 Frequeny가 가변되더라도 Pulse Duty가 동일하기 때문에 On Time에 영향이 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_target
+[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Time
+[msec]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 전체 Power = P_peak*(2xPulse_Duty)/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_target / P_real x 5msec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_peak[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_real[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Time calculator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit
+[msec]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductance가 증가하는 경우, Output Power가 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snubber 회로 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,43 +377,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220VAC Regulator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vtran_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vtran_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Itran_in</t>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn-off시 Peak Voltage 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringring을 줄여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRFP460C 의 Output Capacitance Cp= 460pF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,11 +401,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0.00000"/>
-    <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0\ &quot;%&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -307,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,8 +462,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -565,11 +719,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,31 +891,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -620,6 +1053,7 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFB7DEE8"/>
     </mruColors>
   </colors>
@@ -634,20 +1068,1912 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+              <a:t>On Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Power!$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.0 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Power!$D$43:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Power!$E$43:$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.1773049645390071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3546099290780142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53191489361702127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70921985815602839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88652482269503552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0638297872340425</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2411347517730495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4184397163120568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5957446808510638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.773049645390071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9503546099290781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3049645390070923</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4822695035460991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6595744680851063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8368794326241136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0141843971631204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1914893617021276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3687943262411348</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5460992907801421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7234042553191489</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9007092198581561</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0780141843971629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2553191489361701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4326241134751774</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6099290780141846</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7872340425531918</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.9645390070921982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1418439716312054</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3191489361702127</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4964539007092199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.6737588652482271</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8510638297872344</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0283687943262407</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.205673758865248</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3829787234042552</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5602836879432624</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7375886524822697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9148936170212769</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.0921985815602842</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.2695035460992905</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.4468085106382977</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.624113475177305</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.8014184397163122</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.9787234042553195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Power!$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.0 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Power!$D$43:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Power!$F$43:$F$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.1182033096926714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2364066193853428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3546099290780142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4728132387706856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59101654846335694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70921985815602839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82742316784869974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94562647754137119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0638297872340425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1820330969267139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3002364066193852</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4184397163120568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5366430260047281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6548463356973995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.773049645390071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8912529550827424</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0094562647754137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2458628841607564</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3640661938534278</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4822695035460991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6004728132387704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7186761229314422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8368794326241136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9550827423167849</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0732860520094563</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1914893617021276</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3096926713947989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4278959810874703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5460992907801421</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.664302600472813</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7825059101654848</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9007092198581561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0189125295508275</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1371158392434983</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2553191489361701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3735224586288419</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4917257683215128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6099290780141846</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7281323877068555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8463356973995273</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9645390070921982</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.08274231678487</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2009456264775409</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.3191489361702127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Power!$G$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Limit
+[msec]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Power!$D$43:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Power!$G$43:$G$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="300435728"/>
+        <c:axId val="300523232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="300435728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+                  <a:t>Power[W]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300523232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="300523232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+                  <a:t>On Time[msec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300435728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>684772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -671,123 +2997,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14258925" y="533400"/>
-          <a:ext cx="1943100" cy="1323975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1514475" y="1209675"/>
-          <a:ext cx="7591425" cy="6048375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9439275" y="1133475"/>
-          <a:ext cx="8315325" cy="6105525"/>
+          <a:off x="7058025" y="4791076"/>
+          <a:ext cx="1341997" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,15 +3019,1125 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1152526</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>51633</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="그룹 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="904876" y="2638425"/>
+          <a:ext cx="5181600" cy="4156908"/>
+          <a:chOff x="904876" y="2428875"/>
+          <a:chExt cx="5181600" cy="4156908"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="그림 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="904876" y="2428875"/>
+            <a:ext cx="5181600" cy="4156908"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1323975" y="2981325"/>
+            <a:ext cx="1024383" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Green : 600uH</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Red : 1000uH</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1314450" y="2524125"/>
+            <a:ext cx="1108701" cy="374141"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Vtrans_in</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27384</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="그룹 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6362700" y="2638425"/>
+          <a:ext cx="5086350" cy="4132659"/>
+          <a:chOff x="6362700" y="2428875"/>
+          <a:chExt cx="5086350" cy="4132659"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6362700" y="2428875"/>
+            <a:ext cx="5086350" cy="4132659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6791325" y="2971800"/>
+            <a:ext cx="1024383" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Green : 600uH</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Red : 1000uH</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6667500" y="2514600"/>
+            <a:ext cx="1256113" cy="374141"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Vtrans_out</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>208179</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="그룹 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="904875" y="7029451"/>
+          <a:ext cx="5181600" cy="4322978"/>
+          <a:chOff x="904875" y="6819901"/>
+          <a:chExt cx="5181600" cy="4322978"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="그림 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="904875" y="6819901"/>
+            <a:ext cx="5181600" cy="4322978"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1238250" y="7362825"/>
+            <a:ext cx="1024383" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Green : 600uH</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Red : 1000uH</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1200150" y="7000875"/>
+            <a:ext cx="1033745" cy="374141"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Itrans_in</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>192044</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="그룹 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6296025" y="7019925"/>
+          <a:ext cx="5438775" cy="4316369"/>
+          <a:chOff x="6296025" y="6810375"/>
+          <a:chExt cx="5438775" cy="4316369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="그림 11"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6296025" y="6810375"/>
+            <a:ext cx="5438775" cy="4316369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6819900" y="7410450"/>
+            <a:ext cx="1024383" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Green : 600uH</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Red : 1000uH</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6696075" y="6953250"/>
+            <a:ext cx="1181157" cy="374141"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Itrans_out</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>180046</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="그룹 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="904875" y="11639550"/>
+          <a:ext cx="10868025" cy="4085296"/>
+          <a:chOff x="904875" y="11430000"/>
+          <a:chExt cx="10868025" cy="4085296"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="그림 15"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="904875" y="11430000"/>
+            <a:ext cx="10868025" cy="4085296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1362075" y="11858625"/>
+            <a:ext cx="1024383" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Green : 600uH</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Red : 1000uH</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="TextBox 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1295400" y="11506200"/>
+            <a:ext cx="1029449" cy="374141"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P_trans_</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11144250" y="2371725"/>
+          <a:ext cx="7515225" cy="5448300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1395254" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="2657475"/>
+          <a:ext cx="1395254" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Red : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Origin</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Green : Snubber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -874,13 +4195,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -938,13 +4259,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -955,7 +4276,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -993,13 +4314,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>16965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1010,7 +4331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1048,13 +4369,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>125274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>518578</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1065,7 +4386,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1103,13 +4424,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>183959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1120,7 +4441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1158,13 +4479,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>277511</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1175,7 +4496,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1213,13 +4534,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>68714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1230,7 +4551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1268,13 +4589,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>86051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1285,7 +4606,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1323,13 +4644,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>681053</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1340,7 +4661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1374,6 +4695,166 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1257300" y="781050"/>
+          <a:ext cx="7515225" cy="5448300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1395254" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="1066800"/>
+          <a:ext cx="1395254" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Red : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Origin</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Green : Snubber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1664,10 +5145,1372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:O87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="4.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="O2"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="15">
+        <v>50</v>
+      </c>
+      <c r="E6" s="16">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14">
+        <v>100</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="15">
+        <v>50</v>
+      </c>
+      <c r="E11" s="16">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="8">
+        <v>30</v>
+      </c>
+      <c r="E12" s="14">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="3"/>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="39"/>
+      <c r="E17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D18" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="49">
+        <v>220</v>
+      </c>
+      <c r="F18" s="26">
+        <v>220</v>
+      </c>
+      <c r="G18" s="26">
+        <v>220</v>
+      </c>
+      <c r="H18" s="26">
+        <v>220</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="50">
+        <v>300</v>
+      </c>
+      <c r="F19" s="29">
+        <v>300</v>
+      </c>
+      <c r="G19" s="28">
+        <f>G18*(2^0.5)</f>
+        <v>311.12698372208092</v>
+      </c>
+      <c r="H19" s="29">
+        <v>220</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D20" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="36">
+        <f>E19/2</f>
+        <v>150</v>
+      </c>
+      <c r="F20" s="28">
+        <f>F19/2</f>
+        <v>150</v>
+      </c>
+      <c r="G20" s="28">
+        <f>G19/2</f>
+        <v>155.56349186104046</v>
+      </c>
+      <c r="H20" s="29">
+        <v>220</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="50">
+        <v>18.8</v>
+      </c>
+      <c r="F21" s="29">
+        <v>18.8</v>
+      </c>
+      <c r="G21" s="29">
+        <v>20</v>
+      </c>
+      <c r="H21" s="30">
+        <v>12.5</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="36">
+        <f>E20*E21</f>
+        <v>2820</v>
+      </c>
+      <c r="F22" s="28">
+        <f>F20*F21</f>
+        <v>2820</v>
+      </c>
+      <c r="G22" s="28">
+        <f>G20*G21</f>
+        <v>3111.2698372208092</v>
+      </c>
+      <c r="H22" s="28">
+        <f>H20*H21</f>
+        <v>2750</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D23" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="50">
+        <v>5</v>
+      </c>
+      <c r="F23" s="29">
+        <v>5</v>
+      </c>
+      <c r="G23" s="29">
+        <v>5</v>
+      </c>
+      <c r="H23" s="29">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="50">
+        <v>720</v>
+      </c>
+      <c r="F24" s="28">
+        <f>F20*F23</f>
+        <v>750</v>
+      </c>
+      <c r="G24" s="28">
+        <f>G20*G23</f>
+        <v>777.81745930520231</v>
+      </c>
+      <c r="H24" s="29">
+        <f>H20*H23</f>
+        <v>1100</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D25" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="37">
+        <v>3.67</v>
+      </c>
+      <c r="F25" s="31">
+        <f>F22/F24</f>
+        <v>3.76</v>
+      </c>
+      <c r="G25" s="31">
+        <f>G22/G24</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="29">
+        <f>H22/H24</f>
+        <v>2.5</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D26" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="50">
+        <v>10</v>
+      </c>
+      <c r="F26" s="29">
+        <v>10</v>
+      </c>
+      <c r="G26" s="29">
+        <v>10</v>
+      </c>
+      <c r="H26" s="29">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D27" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="50">
+        <f>E26*2</f>
+        <v>20</v>
+      </c>
+      <c r="F27" s="29">
+        <f>F26*2</f>
+        <v>20</v>
+      </c>
+      <c r="G27" s="29">
+        <f>G26*2</f>
+        <v>20</v>
+      </c>
+      <c r="H27" s="29">
+        <f>H26*2</f>
+        <v>20</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D28" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="50">
+        <f>E22*E27/100</f>
+        <v>564</v>
+      </c>
+      <c r="F28" s="29">
+        <f>F22*F27/100</f>
+        <v>564</v>
+      </c>
+      <c r="G28" s="29">
+        <f>G22*G27/100</f>
+        <v>622.25396744416184</v>
+      </c>
+      <c r="H28" s="29">
+        <f>H22*H27/100</f>
+        <v>550</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D29" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="38">
+        <v>300</v>
+      </c>
+      <c r="F29" s="32">
+        <v>300</v>
+      </c>
+      <c r="G29" s="32">
+        <v>300</v>
+      </c>
+      <c r="H29" s="32">
+        <v>300</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D30" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="51">
+        <f>E29/E28</f>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="F30" s="52">
+        <f>F29/F28</f>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="G30" s="52">
+        <f>G29/G28</f>
+        <v>0.48211825989991874</v>
+      </c>
+      <c r="H30" s="52">
+        <f>H29/H28</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="53">
+        <f>E30*5</f>
+        <v>2.6595744680851063</v>
+      </c>
+      <c r="F31" s="54">
+        <f>F30*5</f>
+        <v>2.6595744680851063</v>
+      </c>
+      <c r="G31" s="54">
+        <f>G30*5</f>
+        <v>2.4105912994995937</v>
+      </c>
+      <c r="H31" s="54">
+        <f>H30*5</f>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D32" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="55">
+        <v>50</v>
+      </c>
+      <c r="F32" s="56">
+        <v>50</v>
+      </c>
+      <c r="G32" s="56">
+        <v>50</v>
+      </c>
+      <c r="H32" s="56">
+        <v>50</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D33" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="50">
+        <f>1/E32</f>
+        <v>0.02</v>
+      </c>
+      <c r="F33" s="29">
+        <f>1/F32</f>
+        <v>0.02</v>
+      </c>
+      <c r="G33" s="29">
+        <f>1/G32</f>
+        <v>0.02</v>
+      </c>
+      <c r="H33" s="29">
+        <f>1/H32</f>
+        <v>0.02</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="57">
+        <f>E31/E33</f>
+        <v>132.97872340425531</v>
+      </c>
+      <c r="F34" s="58">
+        <f>F31/F33</f>
+        <v>132.97872340425531</v>
+      </c>
+      <c r="G34" s="58">
+        <f>G31/G33</f>
+        <v>120.52956497497968</v>
+      </c>
+      <c r="H34" s="58">
+        <f>H31/H33</f>
+        <v>136.36363636363635</v>
+      </c>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="47"/>
+      <c r="D35" s="48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="73">
+        <v>2820</v>
+      </c>
+      <c r="F39" s="59">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D40" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="74">
+        <v>10</v>
+      </c>
+      <c r="F40" s="66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="75">
+        <f>E39*E40*2/100</f>
+        <v>564</v>
+      </c>
+      <c r="F41" s="60">
+        <f>F39*F40*2/100</f>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="D42" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D43" s="71">
+        <v>20</v>
+      </c>
+      <c r="E43" s="77">
+        <f>($D43/E$41)*5</f>
+        <v>0.1773049645390071</v>
+      </c>
+      <c r="F43" s="62">
+        <f>($D43/F$41)*5</f>
+        <v>0.1182033096926714</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D44" s="71">
+        <v>40</v>
+      </c>
+      <c r="E44" s="77">
+        <f t="shared" ref="E44:F87" si="0">($D44/E$41)*5</f>
+        <v>0.3546099290780142</v>
+      </c>
+      <c r="F44" s="62">
+        <f t="shared" si="0"/>
+        <v>0.2364066193853428</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D45" s="71">
+        <v>60</v>
+      </c>
+      <c r="E45" s="77">
+        <f t="shared" si="0"/>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="F45" s="62">
+        <f t="shared" si="0"/>
+        <v>0.3546099290780142</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D46" s="71">
+        <v>80</v>
+      </c>
+      <c r="E46" s="77">
+        <f t="shared" si="0"/>
+        <v>0.70921985815602839</v>
+      </c>
+      <c r="F46" s="62">
+        <f t="shared" si="0"/>
+        <v>0.4728132387706856</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D47" s="71">
+        <v>100</v>
+      </c>
+      <c r="E47" s="77">
+        <f t="shared" si="0"/>
+        <v>0.88652482269503552</v>
+      </c>
+      <c r="F47" s="62">
+        <f t="shared" si="0"/>
+        <v>0.59101654846335694</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D48" s="71">
+        <v>120</v>
+      </c>
+      <c r="E48" s="77">
+        <f t="shared" si="0"/>
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="F48" s="62">
+        <f t="shared" si="0"/>
+        <v>0.70921985815602839</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D49" s="71">
+        <v>140</v>
+      </c>
+      <c r="E49" s="77">
+        <f t="shared" si="0"/>
+        <v>1.2411347517730495</v>
+      </c>
+      <c r="F49" s="62">
+        <f t="shared" si="0"/>
+        <v>0.82742316784869974</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" s="71">
+        <v>160</v>
+      </c>
+      <c r="E50" s="77">
+        <f t="shared" si="0"/>
+        <v>1.4184397163120568</v>
+      </c>
+      <c r="F50" s="62">
+        <f t="shared" si="0"/>
+        <v>0.94562647754137119</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D51" s="71">
+        <v>180</v>
+      </c>
+      <c r="E51" s="77">
+        <f t="shared" si="0"/>
+        <v>1.5957446808510638</v>
+      </c>
+      <c r="F51" s="62">
+        <f t="shared" si="0"/>
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D52" s="71">
+        <v>200</v>
+      </c>
+      <c r="E52" s="77">
+        <f t="shared" si="0"/>
+        <v>1.773049645390071</v>
+      </c>
+      <c r="F52" s="62">
+        <f t="shared" si="0"/>
+        <v>1.1820330969267139</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D53" s="71">
+        <v>220</v>
+      </c>
+      <c r="E53" s="77">
+        <f t="shared" si="0"/>
+        <v>1.9503546099290781</v>
+      </c>
+      <c r="F53" s="62">
+        <f t="shared" si="0"/>
+        <v>1.3002364066193852</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D54" s="71">
+        <v>240</v>
+      </c>
+      <c r="E54" s="77">
+        <f t="shared" si="0"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="F54" s="62">
+        <f t="shared" si="0"/>
+        <v>1.4184397163120568</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D55" s="71">
+        <v>260</v>
+      </c>
+      <c r="E55" s="77">
+        <f t="shared" si="0"/>
+        <v>2.3049645390070923</v>
+      </c>
+      <c r="F55" s="62">
+        <f t="shared" si="0"/>
+        <v>1.5366430260047281</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D56" s="71">
+        <v>280</v>
+      </c>
+      <c r="E56" s="77">
+        <f t="shared" si="0"/>
+        <v>2.4822695035460991</v>
+      </c>
+      <c r="F56" s="62">
+        <f t="shared" si="0"/>
+        <v>1.6548463356973995</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57" s="71">
+        <v>300</v>
+      </c>
+      <c r="E57" s="77">
+        <f t="shared" si="0"/>
+        <v>2.6595744680851063</v>
+      </c>
+      <c r="F57" s="62">
+        <f t="shared" si="0"/>
+        <v>1.773049645390071</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D58" s="71">
+        <v>320</v>
+      </c>
+      <c r="E58" s="77">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241136</v>
+      </c>
+      <c r="F58" s="62">
+        <f t="shared" si="0"/>
+        <v>1.8912529550827424</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D59" s="71">
+        <v>340</v>
+      </c>
+      <c r="E59" s="77">
+        <f t="shared" si="0"/>
+        <v>3.0141843971631204</v>
+      </c>
+      <c r="F59" s="62">
+        <f t="shared" si="0"/>
+        <v>2.0094562647754137</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D60" s="71">
+        <v>360</v>
+      </c>
+      <c r="E60" s="77">
+        <f t="shared" si="0"/>
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="F60" s="62">
+        <f t="shared" si="0"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D61" s="71">
+        <v>380</v>
+      </c>
+      <c r="E61" s="77">
+        <f t="shared" si="0"/>
+        <v>3.3687943262411348</v>
+      </c>
+      <c r="F61" s="62">
+        <f t="shared" si="0"/>
+        <v>2.2458628841607564</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D62" s="71">
+        <v>400</v>
+      </c>
+      <c r="E62" s="77">
+        <f t="shared" si="0"/>
+        <v>3.5460992907801421</v>
+      </c>
+      <c r="F62" s="62">
+        <f t="shared" si="0"/>
+        <v>2.3640661938534278</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D63" s="71">
+        <v>420</v>
+      </c>
+      <c r="E63" s="77">
+        <f t="shared" si="0"/>
+        <v>3.7234042553191489</v>
+      </c>
+      <c r="F63" s="62">
+        <f t="shared" si="0"/>
+        <v>2.4822695035460991</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D64" s="71">
+        <v>440</v>
+      </c>
+      <c r="E64" s="77">
+        <f t="shared" si="0"/>
+        <v>3.9007092198581561</v>
+      </c>
+      <c r="F64" s="62">
+        <f t="shared" si="0"/>
+        <v>2.6004728132387704</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D65" s="71">
+        <v>460</v>
+      </c>
+      <c r="E65" s="77">
+        <f t="shared" si="0"/>
+        <v>4.0780141843971629</v>
+      </c>
+      <c r="F65" s="62">
+        <f t="shared" si="0"/>
+        <v>2.7186761229314422</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D66" s="71">
+        <v>480</v>
+      </c>
+      <c r="E66" s="77">
+        <f t="shared" si="0"/>
+        <v>4.2553191489361701</v>
+      </c>
+      <c r="F66" s="62">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241136</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D67" s="71">
+        <v>500</v>
+      </c>
+      <c r="E67" s="77">
+        <f t="shared" si="0"/>
+        <v>4.4326241134751774</v>
+      </c>
+      <c r="F67" s="62">
+        <f t="shared" si="0"/>
+        <v>2.9550827423167849</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D68" s="71">
+        <v>520</v>
+      </c>
+      <c r="E68" s="77">
+        <f t="shared" si="0"/>
+        <v>4.6099290780141846</v>
+      </c>
+      <c r="F68" s="62">
+        <f t="shared" si="0"/>
+        <v>3.0732860520094563</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D69" s="71">
+        <v>540</v>
+      </c>
+      <c r="E69" s="77">
+        <f t="shared" si="0"/>
+        <v>4.7872340425531918</v>
+      </c>
+      <c r="F69" s="62">
+        <f t="shared" si="0"/>
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70" s="71">
+        <v>560</v>
+      </c>
+      <c r="E70" s="77">
+        <f t="shared" si="0"/>
+        <v>4.9645390070921982</v>
+      </c>
+      <c r="F70" s="62">
+        <f t="shared" si="0"/>
+        <v>3.3096926713947989</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D71" s="71">
+        <v>580</v>
+      </c>
+      <c r="E71" s="77">
+        <f t="shared" si="0"/>
+        <v>5.1418439716312054</v>
+      </c>
+      <c r="F71" s="62">
+        <f t="shared" si="0"/>
+        <v>3.4278959810874703</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D72" s="71">
+        <v>600</v>
+      </c>
+      <c r="E72" s="77">
+        <f t="shared" si="0"/>
+        <v>5.3191489361702127</v>
+      </c>
+      <c r="F72" s="62">
+        <f t="shared" si="0"/>
+        <v>3.5460992907801421</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73" s="71">
+        <v>620</v>
+      </c>
+      <c r="E73" s="77">
+        <f t="shared" si="0"/>
+        <v>5.4964539007092199</v>
+      </c>
+      <c r="F73" s="62">
+        <f t="shared" si="0"/>
+        <v>3.664302600472813</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D74" s="71">
+        <v>640</v>
+      </c>
+      <c r="E74" s="77">
+        <f t="shared" si="0"/>
+        <v>5.6737588652482271</v>
+      </c>
+      <c r="F74" s="62">
+        <f t="shared" si="0"/>
+        <v>3.7825059101654848</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D75" s="71">
+        <v>660</v>
+      </c>
+      <c r="E75" s="77">
+        <f t="shared" si="0"/>
+        <v>5.8510638297872344</v>
+      </c>
+      <c r="F75" s="62">
+        <f t="shared" si="0"/>
+        <v>3.9007092198581561</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D76" s="71">
+        <v>680</v>
+      </c>
+      <c r="E76" s="77">
+        <f t="shared" si="0"/>
+        <v>6.0283687943262407</v>
+      </c>
+      <c r="F76" s="62">
+        <f t="shared" si="0"/>
+        <v>4.0189125295508275</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D77" s="71">
+        <v>700</v>
+      </c>
+      <c r="E77" s="77">
+        <f t="shared" si="0"/>
+        <v>6.205673758865248</v>
+      </c>
+      <c r="F77" s="62">
+        <f t="shared" si="0"/>
+        <v>4.1371158392434983</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D78" s="71">
+        <v>720</v>
+      </c>
+      <c r="E78" s="77">
+        <f t="shared" si="0"/>
+        <v>6.3829787234042552</v>
+      </c>
+      <c r="F78" s="62">
+        <f t="shared" si="0"/>
+        <v>4.2553191489361701</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D79" s="71">
+        <v>740</v>
+      </c>
+      <c r="E79" s="77">
+        <f t="shared" si="0"/>
+        <v>6.5602836879432624</v>
+      </c>
+      <c r="F79" s="62">
+        <f t="shared" si="0"/>
+        <v>4.3735224586288419</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D80" s="71">
+        <v>760</v>
+      </c>
+      <c r="E80" s="77">
+        <f t="shared" si="0"/>
+        <v>6.7375886524822697</v>
+      </c>
+      <c r="F80" s="62">
+        <f t="shared" si="0"/>
+        <v>4.4917257683215128</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D81" s="71">
+        <v>780</v>
+      </c>
+      <c r="E81" s="77">
+        <f t="shared" si="0"/>
+        <v>6.9148936170212769</v>
+      </c>
+      <c r="F81" s="62">
+        <f t="shared" si="0"/>
+        <v>4.6099290780141846</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D82" s="71">
+        <v>800</v>
+      </c>
+      <c r="E82" s="77">
+        <f t="shared" si="0"/>
+        <v>7.0921985815602842</v>
+      </c>
+      <c r="F82" s="62">
+        <f t="shared" si="0"/>
+        <v>4.7281323877068555</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D83" s="71">
+        <v>820</v>
+      </c>
+      <c r="E83" s="77">
+        <f t="shared" si="0"/>
+        <v>7.2695035460992905</v>
+      </c>
+      <c r="F83" s="62">
+        <f t="shared" si="0"/>
+        <v>4.8463356973995273</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D84" s="71">
+        <v>840</v>
+      </c>
+      <c r="E84" s="77">
+        <f t="shared" si="0"/>
+        <v>7.4468085106382977</v>
+      </c>
+      <c r="F84" s="62">
+        <f t="shared" si="0"/>
+        <v>4.9645390070921982</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D85" s="71">
+        <v>860</v>
+      </c>
+      <c r="E85" s="77">
+        <f t="shared" si="0"/>
+        <v>7.624113475177305</v>
+      </c>
+      <c r="F85" s="62">
+        <f t="shared" si="0"/>
+        <v>5.08274231678487</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D86" s="71">
+        <v>880</v>
+      </c>
+      <c r="E86" s="77">
+        <f t="shared" si="0"/>
+        <v>7.8014184397163122</v>
+      </c>
+      <c r="F86" s="62">
+        <f t="shared" si="0"/>
+        <v>5.2009456264775409</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D87" s="72">
+        <v>900</v>
+      </c>
+      <c r="E87" s="78">
+        <f t="shared" si="0"/>
+        <v>7.9787234042553195</v>
+      </c>
+      <c r="F87" s="63">
+        <f t="shared" si="0"/>
+        <v>5.3191489361702127</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1681,494 +6524,184 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="14" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="12" t="s">
+      <c r="G5" s="65"/>
+    </row>
+    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="10">
+    <row r="7" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="10">
         <v>100</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>983</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>100</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>24.19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7">
-        <v>597</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7">
-        <v>14.96</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7">
         <v>14.96</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="8">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>594</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="8">
         <v>0.12</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>594</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>0.12</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>15.03</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="5" t="s">
-        <v>32</v>
-      </c>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N25"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.125" customWidth="1"/>
-    <col min="3" max="3" width="4.25" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
+    <col min="1" max="3" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="1">
-        <v>220</v>
-      </c>
-      <c r="M4" s="1">
-        <v>220</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="30">
-        <f>L4*(2^0.5)</f>
-        <v>311.12698372208092</v>
-      </c>
-      <c r="M5" s="1">
-        <v>220</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D6" s="20">
-        <v>50</v>
-      </c>
-      <c r="E6" s="21">
-        <v>10</v>
-      </c>
-      <c r="F6" s="21">
-        <v>2</v>
-      </c>
-      <c r="G6" s="22">
-        <v>82</v>
-      </c>
-      <c r="H6">
-        <f>G6/E6</f>
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D7" s="6">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10">
         <v>20</v>
       </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23">
-        <v>182</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H8" si="0">G7/E7</f>
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="8">
-        <v>50</v>
-      </c>
-      <c r="E8" s="16">
-        <v>100</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2</v>
-      </c>
-      <c r="G8" s="24">
-        <v>900</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="1">
-        <v>150</v>
-      </c>
-      <c r="M8">
-        <v>220</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="1">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="30">
-        <f>L8*L9</f>
-        <v>3000</v>
-      </c>
-      <c r="N10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D11" s="20">
-        <v>50</v>
-      </c>
-      <c r="E11" s="21">
-        <v>20</v>
-      </c>
-      <c r="F11" s="21">
-        <v>2</v>
-      </c>
-      <c r="G11" s="22">
-        <v>182</v>
-      </c>
-      <c r="H11">
-        <f>G11/E11</f>
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="8">
-        <v>30</v>
-      </c>
-      <c r="E12" s="16">
-        <v>20</v>
-      </c>
-      <c r="F12" s="16">
-        <v>3.2</v>
-      </c>
-      <c r="G12" s="24">
-        <v>70</v>
-      </c>
-      <c r="H12">
-        <f>G12/E12*F12</f>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="1">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16">
-        <v>500</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17">
-        <v>5000</v>
-      </c>
-      <c r="F17">
-        <v>5000</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
-        <v>220</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18">
-        <f>1/E17*1000</f>
-        <v>0.2</v>
-      </c>
-      <c r="F18">
-        <f>1/F17*1000</f>
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="27">
-        <f>K16/K17</f>
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19">
-        <v>50</v>
-      </c>
-      <c r="F19">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20">
-        <f>1/E19*1000</f>
-        <v>20</v>
-      </c>
-      <c r="F20" s="28">
-        <f>1/F19*1000</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <f>E20/E17</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F21" s="26">
-        <f>F20/F17</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22">
-        <f>E21*0.1</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F22" s="25">
-        <f>F21*0.1</f>
-        <v>6.6666666666666675E-4</v>
-      </c>
-      <c r="K22">
-        <v>220</v>
-      </c>
-      <c r="L22" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E23">
-        <f>E22*500</f>
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="25">
-        <f>F22*500</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="K23">
-        <f>K22^2</f>
-        <v>48400</v>
-      </c>
-      <c r="L23" s="1">
-        <f>L22*(2^0.5)</f>
-        <v>311.12698372208092</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="K24">
-        <f>K23/2</f>
-        <v>24200</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="K25">
-        <f>K24^0.5</f>
-        <v>155.56349186104046</v>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <f>E10*E11</f>
+        <v>12400</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2178,12 +6711,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C119"/>
+  <dimension ref="B1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2191,43 +6724,43 @@
     <col min="2" max="2" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="3" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="5" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="4" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="3" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="4" t="s">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2239,7 +6772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J8"/>
   <sheetViews>

--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -1,107 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Power" sheetId="2" r:id="rId1"/>
     <sheet name="Transformer" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Snubber Review" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Snubber" sheetId="6" r:id="rId3"/>
+    <sheet name="Load Resistance" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
-  <si>
-    <t>Zener Diode Vz=10V Izsm=454mA 1W 5% DO-41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N4740A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Onsemi</t>
-  </si>
-  <si>
-    <t>Zener Diode Vz=15V Izsm=304mA 1W 5% DO-41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N4744A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) Snubber 회로 추가시 Vgs 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Snubber 회로 검토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; Pulse Off시 역으로 걸리는 전압이 떨어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) Snubber 회로 추가시 전류 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; FET의 전류가 삼각파 형태를 띄며, Low FET의 경우에는 전류 방향이 반대로 흐른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; FET의 전류가 구형파 형태를 띄며, Low FET도 정상 방향으로 흐른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) Snubber 회로 추가시 Transformer 전류 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; Snubber가 없는 경우, Transformer의 전류가 안정화되지 않는다. Snubber 추가시 0.4msec내에 안정화 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>Inductance[uH]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,7 +285,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
+    <t>Turn-off시 Peak Voltage 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringring을 줄여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRFP460 I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,7 +301,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R</t>
+    <t>IRFP460 V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,15 +309,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Turn-off시 Peak Voltage 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ringring을 줄여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRFP460C 의 Output Capacitance Cp= 460pF</t>
+    <t>Coss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRFP460 P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pdiss_Rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRFP460C 의 Output Capacitance Coss= 460pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC Snubber Parameter calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1/N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load에 따른 MOSFET Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load resistance가 떨어지면 MOSFET에 흐르는 current가 상승하여 MOSFET에 damage가 발생함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MOSFET의 continuouse Drain current가 12.5A(Tc=100</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>℃)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이므로 Load를 300Ω 이하로 떨어지지 않게 해야 한다.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,9 +461,9 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.0\ &quot;%&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.0\ &quot;%&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +504,21 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -874,14 +946,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1006,10 +1077,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1025,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1044,6 +1112,42 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1118,26 +1222,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2102,12 +2186,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="300435728"/>
-        <c:axId val="300523232"/>
+        <c:axId val="244093440"/>
+        <c:axId val="235695488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="300435728"/>
+        <c:axId val="244093440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,26 +2234,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2207,7 +2272,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300523232"/>
+        <c:crossAx val="235695488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2215,7 +2280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300523232"/>
+        <c:axId val="235695488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,26 +2336,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2323,7 +2368,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300435728"/>
+        <c:crossAx val="244093440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2964,14 +3009,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>684772</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>408547</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
@@ -3964,897 +4009,42 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>610635</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="11144250" y="2371725"/>
-          <a:ext cx="7515225" cy="5448300"/>
+          <a:off x="952500" y="2847975"/>
+          <a:ext cx="7411485" cy="1409897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1395254" cy="530658"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11706225" y="2657475"/>
-          <a:ext cx="1395254" cy="530658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Red : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Origin</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Green : Snubber</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14478000" y="2028825"/>
-          <a:ext cx="838200" cy="1790700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="B7DEE8">
-            <a:alpha val="43922"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14658975" y="4648200"/>
-          <a:ext cx="838200" cy="1790700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="B7DEE8">
-            <a:alpha val="43922"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1162050" y="7419975"/>
-          <a:ext cx="13458825" cy="5524500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>16965</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1123951" y="13763625"/>
-          <a:ext cx="6153150" cy="5112840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>125274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>518578</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7400924" y="13746024"/>
-          <a:ext cx="9243479" cy="3741876"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>183959</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1152525" y="19621501"/>
-          <a:ext cx="6105525" cy="4870258"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>277511</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7487936" y="19535776"/>
-          <a:ext cx="9771363" cy="4076700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>68714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1143001" y="29051250"/>
-          <a:ext cx="11506200" cy="4545464"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>86051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6562725" y="24784050"/>
-          <a:ext cx="4333875" cy="4010351"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>681053</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="그림 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1171575" y="24803100"/>
-          <a:ext cx="4662503" cy="4038600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1257300" y="781050"/>
-          <a:ext cx="7515225" cy="5448300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1395254" cy="530658"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1819275" y="1066800"/>
-          <a:ext cx="1395254" cy="530658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Red : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Origin</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Green : Snubber</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4901,7 +4091,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4936,7 +4126,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5147,8 +4337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5166,7 +4356,7 @@
   <sheetData>
     <row r="2" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -5182,39 +4372,39 @@
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>68</v>
+      <c r="D5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>50</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>10</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>2</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>50</v>
       </c>
       <c r="E7" s="2">
@@ -5223,569 +4413,661 @@
       <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>50</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>100</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>900</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>68</v>
+      <c r="D10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>50</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>20</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>30</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>20</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>3.2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="39"/>
-      <c r="E17" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D18" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="38"/>
+      <c r="E17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="48">
         <v>220</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>220</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>220</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>220</v>
       </c>
-      <c r="I18" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D19" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="50">
+      <c r="I18" s="25">
+        <v>220</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D19" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="49">
         <v>300</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <v>300</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="90">
         <f>G18*(2^0.5)</f>
         <v>311.12698372208092</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="27">
+        <v>300</v>
+      </c>
+      <c r="I19" s="28">
         <v>220</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D20" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="36">
+      <c r="J19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D20" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="35">
         <f>E19/2</f>
         <v>150</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <f>F19/2</f>
         <v>150</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <f>G19/2</f>
         <v>155.56349186104046</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="27">
+        <f>H19/2</f>
+        <v>150</v>
+      </c>
+      <c r="I20" s="28">
         <v>220</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="50">
+      <c r="J20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D21" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="49">
         <v>18.8</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="91">
         <v>18.8</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="91">
         <v>20</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="91">
         <v>12.5</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D22" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="36">
+      <c r="I21" s="29">
+        <v>12.5</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D22" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="35">
         <f>E20*E21</f>
         <v>2820</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <f>F20*F21</f>
         <v>2820</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <f>G20*G21</f>
         <v>3111.2698372208092</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="27">
         <f>H20*H21</f>
+        <v>1875</v>
+      </c>
+      <c r="I22" s="27">
+        <f>I20*I21</f>
         <v>2750</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D23" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="50">
+      <c r="J22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="N22"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="49">
         <v>5</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>5</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <v>5</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <v>5</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D24" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="50">
+      <c r="I23" s="28">
+        <v>5</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="49">
         <v>720</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <f>F20*F23</f>
         <v>750</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <f>G20*G23</f>
         <v>777.81745930520231</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="27">
         <f>H20*H23</f>
+        <v>750</v>
+      </c>
+      <c r="I24" s="28">
+        <f>I20*I23</f>
         <v>1100</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D25" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="37">
+      <c r="J24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D25" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="36">
         <v>3.67</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <f>F22/F24</f>
         <v>3.76</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="30">
         <f>G22/G24</f>
         <v>4</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="30">
         <f>H22/H24</f>
         <v>2.5</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D26" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="50">
+      <c r="I25" s="28">
+        <f>I22/I24</f>
+        <v>2.5</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D26" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="49">
         <v>10</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>10</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <v>10</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <v>10</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D27" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="50">
+      <c r="I26" s="28">
+        <v>10</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D27" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="49">
         <f>E26*2</f>
         <v>20</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <f>F26*2</f>
         <v>20</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <f>G26*2</f>
         <v>20</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <f>H26*2</f>
         <v>20</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27"/>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D28" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="50">
+      <c r="I27" s="28">
+        <f>I26*2</f>
+        <v>20</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D28" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="49">
         <f>E22*E27/100</f>
         <v>564</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <f>F22*F27/100</f>
         <v>564</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="27">
         <f>G22*G27/100</f>
         <v>622.25396744416184</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="27">
         <f>H22*H27/100</f>
+        <v>375</v>
+      </c>
+      <c r="I28" s="28">
+        <f>I22*I27/100</f>
         <v>550</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D29" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="38">
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D29" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="37">
         <v>300</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
         <v>300</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="31">
         <v>300</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="31">
         <v>300</v>
       </c>
-      <c r="I29" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D30" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="51">
+      <c r="I29" s="31">
+        <v>300</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D30" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="50">
         <f>E29/E28</f>
         <v>0.53191489361702127</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="51">
         <f>F29/F28</f>
         <v>0.53191489361702127</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="51">
         <f>G29/G28</f>
         <v>0.48211825989991874</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="51">
         <f>H29/H28</f>
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="51">
+        <f>I29/I28</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="53">
+      <c r="J30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="4:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="52">
         <f>E30*5</f>
         <v>2.6595744680851063</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="53">
         <f>F30*5</f>
         <v>2.6595744680851063</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="53">
         <f>G30*5</f>
         <v>2.4105912994995937</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="53">
         <f>H30*5</f>
+        <v>4</v>
+      </c>
+      <c r="I31" s="53">
+        <f>I30*5</f>
         <v>2.7272727272727271</v>
       </c>
-      <c r="I31" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D32" s="44" t="s">
+      <c r="J31" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="55">
+      <c r="N31"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D32" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="54">
         <v>50</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="55">
         <v>50</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="55">
         <v>50</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="55">
         <v>50</v>
       </c>
-      <c r="I32" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D33" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="50">
+      <c r="I32" s="55">
+        <v>50</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D33" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="49">
         <f>1/E32</f>
         <v>0.02</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <f>1/F32</f>
         <v>0.02</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <f>1/G32</f>
         <v>0.02</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <f>1/H32</f>
         <v>0.02</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="57">
+      <c r="I33" s="28">
+        <f>1/I32</f>
+        <v>0.02</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="56">
         <f>E31/E33</f>
         <v>132.97872340425531</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="57">
         <f>F31/F33</f>
         <v>132.97872340425531</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G34" s="57">
         <f>G31/G33</f>
         <v>120.52956497497968</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="57">
         <f>H31/H33</f>
+        <v>200</v>
+      </c>
+      <c r="I34" s="57">
+        <f>I31/I33</f>
         <v>136.36363636363635</v>
       </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="47"/>
-      <c r="D35" s="48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D36" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J34" s="8"/>
+      <c r="N34"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C35" s="46"/>
+      <c r="D35" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D39" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="73">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D39" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="71">
         <v>2820</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="58">
         <v>2820</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D40" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="74">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D40" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="72">
         <v>10</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="64">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="75">
+    <row r="41" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="73">
         <f>E39*E40*2/100</f>
         <v>564</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="59">
         <f>F39*F40*2/100</f>
         <v>846</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="D42" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D43" s="71">
+    <row r="42" spans="3:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="D42" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D43" s="69">
         <v>20</v>
       </c>
-      <c r="E43" s="77">
+      <c r="E43" s="75">
         <f>($D43/E$41)*5</f>
         <v>0.1773049645390071</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="61">
         <f>($D43/F$41)*5</f>
         <v>0.1182033096926714</v>
       </c>
@@ -5793,15 +5075,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D44" s="71">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D44" s="69">
         <v>40</v>
       </c>
-      <c r="E44" s="77">
+      <c r="E44" s="75">
         <f t="shared" ref="E44:F87" si="0">($D44/E$41)*5</f>
         <v>0.3546099290780142</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="61">
         <f t="shared" si="0"/>
         <v>0.2364066193853428</v>
       </c>
@@ -5809,15 +5091,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D45" s="71">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D45" s="69">
         <v>60</v>
       </c>
-      <c r="E45" s="77">
+      <c r="E45" s="75">
         <f t="shared" si="0"/>
         <v>0.53191489361702127</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="61">
         <f t="shared" si="0"/>
         <v>0.3546099290780142</v>
       </c>
@@ -5825,15 +5107,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D46" s="71">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D46" s="69">
         <v>80</v>
       </c>
-      <c r="E46" s="77">
+      <c r="E46" s="75">
         <f t="shared" si="0"/>
         <v>0.70921985815602839</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="61">
         <f t="shared" si="0"/>
         <v>0.4728132387706856</v>
       </c>
@@ -5841,15 +5123,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D47" s="71">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D47" s="69">
         <v>100</v>
       </c>
-      <c r="E47" s="77">
+      <c r="E47" s="75">
         <f t="shared" si="0"/>
         <v>0.88652482269503552</v>
       </c>
-      <c r="F47" s="62">
+      <c r="F47" s="61">
         <f t="shared" si="0"/>
         <v>0.59101654846335694</v>
       </c>
@@ -5857,15 +5139,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D48" s="71">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D48" s="69">
         <v>120</v>
       </c>
-      <c r="E48" s="77">
+      <c r="E48" s="75">
         <f t="shared" si="0"/>
         <v>1.0638297872340425</v>
       </c>
-      <c r="F48" s="62">
+      <c r="F48" s="61">
         <f t="shared" si="0"/>
         <v>0.70921985815602839</v>
       </c>
@@ -5874,14 +5156,14 @@
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D49" s="71">
+      <c r="D49" s="69">
         <v>140</v>
       </c>
-      <c r="E49" s="77">
+      <c r="E49" s="75">
         <f t="shared" si="0"/>
         <v>1.2411347517730495</v>
       </c>
-      <c r="F49" s="62">
+      <c r="F49" s="61">
         <f t="shared" si="0"/>
         <v>0.82742316784869974</v>
       </c>
@@ -5890,14 +5172,14 @@
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D50" s="71">
+      <c r="D50" s="69">
         <v>160</v>
       </c>
-      <c r="E50" s="77">
+      <c r="E50" s="75">
         <f t="shared" si="0"/>
         <v>1.4184397163120568</v>
       </c>
-      <c r="F50" s="62">
+      <c r="F50" s="61">
         <f t="shared" si="0"/>
         <v>0.94562647754137119</v>
       </c>
@@ -5906,14 +5188,14 @@
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D51" s="71">
+      <c r="D51" s="69">
         <v>180</v>
       </c>
-      <c r="E51" s="77">
+      <c r="E51" s="75">
         <f t="shared" si="0"/>
         <v>1.5957446808510638</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="61">
         <f t="shared" si="0"/>
         <v>1.0638297872340425</v>
       </c>
@@ -5922,14 +5204,14 @@
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D52" s="71">
+      <c r="D52" s="69">
         <v>200</v>
       </c>
-      <c r="E52" s="77">
+      <c r="E52" s="75">
         <f t="shared" si="0"/>
         <v>1.773049645390071</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="61">
         <f t="shared" si="0"/>
         <v>1.1820330969267139</v>
       </c>
@@ -5938,14 +5220,14 @@
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D53" s="71">
+      <c r="D53" s="69">
         <v>220</v>
       </c>
-      <c r="E53" s="77">
+      <c r="E53" s="75">
         <f t="shared" si="0"/>
         <v>1.9503546099290781</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="61">
         <f t="shared" si="0"/>
         <v>1.3002364066193852</v>
       </c>
@@ -5954,14 +5236,14 @@
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D54" s="71">
+      <c r="D54" s="69">
         <v>240</v>
       </c>
-      <c r="E54" s="77">
+      <c r="E54" s="75">
         <f t="shared" si="0"/>
         <v>2.1276595744680851</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="61">
         <f t="shared" si="0"/>
         <v>1.4184397163120568</v>
       </c>
@@ -5970,14 +5252,14 @@
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D55" s="71">
+      <c r="D55" s="69">
         <v>260</v>
       </c>
-      <c r="E55" s="77">
+      <c r="E55" s="75">
         <f t="shared" si="0"/>
         <v>2.3049645390070923</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="61">
         <f t="shared" si="0"/>
         <v>1.5366430260047281</v>
       </c>
@@ -5986,14 +5268,14 @@
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D56" s="71">
+      <c r="D56" s="69">
         <v>280</v>
       </c>
-      <c r="E56" s="77">
+      <c r="E56" s="75">
         <f t="shared" si="0"/>
         <v>2.4822695035460991</v>
       </c>
-      <c r="F56" s="62">
+      <c r="F56" s="61">
         <f t="shared" si="0"/>
         <v>1.6548463356973995</v>
       </c>
@@ -6002,14 +5284,14 @@
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D57" s="71">
+      <c r="D57" s="69">
         <v>300</v>
       </c>
-      <c r="E57" s="77">
+      <c r="E57" s="75">
         <f t="shared" si="0"/>
         <v>2.6595744680851063</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="61">
         <f t="shared" si="0"/>
         <v>1.773049645390071</v>
       </c>
@@ -6018,14 +5300,14 @@
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D58" s="71">
+      <c r="D58" s="69">
         <v>320</v>
       </c>
-      <c r="E58" s="77">
+      <c r="E58" s="75">
         <f t="shared" si="0"/>
         <v>2.8368794326241136</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="61">
         <f t="shared" si="0"/>
         <v>1.8912529550827424</v>
       </c>
@@ -6034,14 +5316,14 @@
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D59" s="71">
+      <c r="D59" s="69">
         <v>340</v>
       </c>
-      <c r="E59" s="77">
+      <c r="E59" s="75">
         <f t="shared" si="0"/>
         <v>3.0141843971631204</v>
       </c>
-      <c r="F59" s="62">
+      <c r="F59" s="61">
         <f t="shared" si="0"/>
         <v>2.0094562647754137</v>
       </c>
@@ -6050,14 +5332,14 @@
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D60" s="71">
+      <c r="D60" s="69">
         <v>360</v>
       </c>
-      <c r="E60" s="77">
+      <c r="E60" s="75">
         <f t="shared" si="0"/>
         <v>3.1914893617021276</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="61">
         <f t="shared" si="0"/>
         <v>2.1276595744680851</v>
       </c>
@@ -6066,14 +5348,14 @@
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D61" s="71">
+      <c r="D61" s="69">
         <v>380</v>
       </c>
-      <c r="E61" s="77">
+      <c r="E61" s="75">
         <f t="shared" si="0"/>
         <v>3.3687943262411348</v>
       </c>
-      <c r="F61" s="62">
+      <c r="F61" s="61">
         <f t="shared" si="0"/>
         <v>2.2458628841607564</v>
       </c>
@@ -6082,14 +5364,14 @@
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D62" s="71">
+      <c r="D62" s="69">
         <v>400</v>
       </c>
-      <c r="E62" s="77">
+      <c r="E62" s="75">
         <f t="shared" si="0"/>
         <v>3.5460992907801421</v>
       </c>
-      <c r="F62" s="62">
+      <c r="F62" s="61">
         <f t="shared" si="0"/>
         <v>2.3640661938534278</v>
       </c>
@@ -6098,14 +5380,14 @@
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D63" s="71">
+      <c r="D63" s="69">
         <v>420</v>
       </c>
-      <c r="E63" s="77">
+      <c r="E63" s="75">
         <f t="shared" si="0"/>
         <v>3.7234042553191489</v>
       </c>
-      <c r="F63" s="62">
+      <c r="F63" s="61">
         <f t="shared" si="0"/>
         <v>2.4822695035460991</v>
       </c>
@@ -6114,14 +5396,14 @@
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D64" s="71">
+      <c r="D64" s="69">
         <v>440</v>
       </c>
-      <c r="E64" s="77">
+      <c r="E64" s="75">
         <f t="shared" si="0"/>
         <v>3.9007092198581561</v>
       </c>
-      <c r="F64" s="62">
+      <c r="F64" s="61">
         <f t="shared" si="0"/>
         <v>2.6004728132387704</v>
       </c>
@@ -6130,14 +5412,14 @@
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D65" s="71">
+      <c r="D65" s="69">
         <v>460</v>
       </c>
-      <c r="E65" s="77">
+      <c r="E65" s="75">
         <f t="shared" si="0"/>
         <v>4.0780141843971629</v>
       </c>
-      <c r="F65" s="62">
+      <c r="F65" s="61">
         <f t="shared" si="0"/>
         <v>2.7186761229314422</v>
       </c>
@@ -6146,14 +5428,14 @@
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D66" s="71">
+      <c r="D66" s="69">
         <v>480</v>
       </c>
-      <c r="E66" s="77">
+      <c r="E66" s="75">
         <f t="shared" si="0"/>
         <v>4.2553191489361701</v>
       </c>
-      <c r="F66" s="62">
+      <c r="F66" s="61">
         <f t="shared" si="0"/>
         <v>2.8368794326241136</v>
       </c>
@@ -6162,14 +5444,14 @@
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D67" s="71">
+      <c r="D67" s="69">
         <v>500</v>
       </c>
-      <c r="E67" s="77">
+      <c r="E67" s="75">
         <f t="shared" si="0"/>
         <v>4.4326241134751774</v>
       </c>
-      <c r="F67" s="62">
+      <c r="F67" s="61">
         <f t="shared" si="0"/>
         <v>2.9550827423167849</v>
       </c>
@@ -6178,14 +5460,14 @@
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D68" s="71">
+      <c r="D68" s="69">
         <v>520</v>
       </c>
-      <c r="E68" s="77">
+      <c r="E68" s="75">
         <f t="shared" si="0"/>
         <v>4.6099290780141846</v>
       </c>
-      <c r="F68" s="62">
+      <c r="F68" s="61">
         <f t="shared" si="0"/>
         <v>3.0732860520094563</v>
       </c>
@@ -6194,14 +5476,14 @@
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D69" s="71">
+      <c r="D69" s="69">
         <v>540</v>
       </c>
-      <c r="E69" s="77">
+      <c r="E69" s="75">
         <f t="shared" si="0"/>
         <v>4.7872340425531918</v>
       </c>
-      <c r="F69" s="62">
+      <c r="F69" s="61">
         <f t="shared" si="0"/>
         <v>3.1914893617021276</v>
       </c>
@@ -6210,14 +5492,14 @@
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D70" s="71">
+      <c r="D70" s="69">
         <v>560</v>
       </c>
-      <c r="E70" s="77">
+      <c r="E70" s="75">
         <f t="shared" si="0"/>
         <v>4.9645390070921982</v>
       </c>
-      <c r="F70" s="62">
+      <c r="F70" s="61">
         <f t="shared" si="0"/>
         <v>3.3096926713947989</v>
       </c>
@@ -6226,14 +5508,14 @@
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D71" s="71">
+      <c r="D71" s="69">
         <v>580</v>
       </c>
-      <c r="E71" s="77">
+      <c r="E71" s="75">
         <f t="shared" si="0"/>
         <v>5.1418439716312054</v>
       </c>
-      <c r="F71" s="62">
+      <c r="F71" s="61">
         <f t="shared" si="0"/>
         <v>3.4278959810874703</v>
       </c>
@@ -6242,14 +5524,14 @@
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D72" s="71">
+      <c r="D72" s="69">
         <v>600</v>
       </c>
-      <c r="E72" s="77">
+      <c r="E72" s="75">
         <f t="shared" si="0"/>
         <v>5.3191489361702127</v>
       </c>
-      <c r="F72" s="62">
+      <c r="F72" s="61">
         <f t="shared" si="0"/>
         <v>3.5460992907801421</v>
       </c>
@@ -6258,14 +5540,14 @@
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D73" s="71">
+      <c r="D73" s="69">
         <v>620</v>
       </c>
-      <c r="E73" s="77">
+      <c r="E73" s="75">
         <f t="shared" si="0"/>
         <v>5.4964539007092199</v>
       </c>
-      <c r="F73" s="62">
+      <c r="F73" s="61">
         <f t="shared" si="0"/>
         <v>3.664302600472813</v>
       </c>
@@ -6274,14 +5556,14 @@
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D74" s="71">
+      <c r="D74" s="69">
         <v>640</v>
       </c>
-      <c r="E74" s="77">
+      <c r="E74" s="75">
         <f t="shared" si="0"/>
         <v>5.6737588652482271</v>
       </c>
-      <c r="F74" s="62">
+      <c r="F74" s="61">
         <f t="shared" si="0"/>
         <v>3.7825059101654848</v>
       </c>
@@ -6290,14 +5572,14 @@
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D75" s="71">
+      <c r="D75" s="69">
         <v>660</v>
       </c>
-      <c r="E75" s="77">
+      <c r="E75" s="75">
         <f t="shared" si="0"/>
         <v>5.8510638297872344</v>
       </c>
-      <c r="F75" s="62">
+      <c r="F75" s="61">
         <f t="shared" si="0"/>
         <v>3.9007092198581561</v>
       </c>
@@ -6306,14 +5588,14 @@
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D76" s="71">
+      <c r="D76" s="69">
         <v>680</v>
       </c>
-      <c r="E76" s="77">
+      <c r="E76" s="75">
         <f t="shared" si="0"/>
         <v>6.0283687943262407</v>
       </c>
-      <c r="F76" s="62">
+      <c r="F76" s="61">
         <f t="shared" si="0"/>
         <v>4.0189125295508275</v>
       </c>
@@ -6322,14 +5604,14 @@
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D77" s="71">
+      <c r="D77" s="69">
         <v>700</v>
       </c>
-      <c r="E77" s="77">
+      <c r="E77" s="75">
         <f t="shared" si="0"/>
         <v>6.205673758865248</v>
       </c>
-      <c r="F77" s="62">
+      <c r="F77" s="61">
         <f t="shared" si="0"/>
         <v>4.1371158392434983</v>
       </c>
@@ -6338,14 +5620,14 @@
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D78" s="71">
+      <c r="D78" s="69">
         <v>720</v>
       </c>
-      <c r="E78" s="77">
+      <c r="E78" s="75">
         <f t="shared" si="0"/>
         <v>6.3829787234042552</v>
       </c>
-      <c r="F78" s="62">
+      <c r="F78" s="61">
         <f t="shared" si="0"/>
         <v>4.2553191489361701</v>
       </c>
@@ -6354,14 +5636,14 @@
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D79" s="71">
+      <c r="D79" s="69">
         <v>740</v>
       </c>
-      <c r="E79" s="77">
+      <c r="E79" s="75">
         <f t="shared" si="0"/>
         <v>6.5602836879432624</v>
       </c>
-      <c r="F79" s="62">
+      <c r="F79" s="61">
         <f t="shared" si="0"/>
         <v>4.3735224586288419</v>
       </c>
@@ -6370,14 +5652,14 @@
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D80" s="71">
+      <c r="D80" s="69">
         <v>760</v>
       </c>
-      <c r="E80" s="77">
+      <c r="E80" s="75">
         <f t="shared" si="0"/>
         <v>6.7375886524822697</v>
       </c>
-      <c r="F80" s="62">
+      <c r="F80" s="61">
         <f t="shared" si="0"/>
         <v>4.4917257683215128</v>
       </c>
@@ -6386,14 +5668,14 @@
       </c>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D81" s="71">
+      <c r="D81" s="69">
         <v>780</v>
       </c>
-      <c r="E81" s="77">
+      <c r="E81" s="75">
         <f t="shared" si="0"/>
         <v>6.9148936170212769</v>
       </c>
-      <c r="F81" s="62">
+      <c r="F81" s="61">
         <f t="shared" si="0"/>
         <v>4.6099290780141846</v>
       </c>
@@ -6402,14 +5684,14 @@
       </c>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D82" s="71">
+      <c r="D82" s="69">
         <v>800</v>
       </c>
-      <c r="E82" s="77">
+      <c r="E82" s="75">
         <f t="shared" si="0"/>
         <v>7.0921985815602842</v>
       </c>
-      <c r="F82" s="62">
+      <c r="F82" s="61">
         <f t="shared" si="0"/>
         <v>4.7281323877068555</v>
       </c>
@@ -6418,14 +5700,14 @@
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D83" s="71">
+      <c r="D83" s="69">
         <v>820</v>
       </c>
-      <c r="E83" s="77">
+      <c r="E83" s="75">
         <f t="shared" si="0"/>
         <v>7.2695035460992905</v>
       </c>
-      <c r="F83" s="62">
+      <c r="F83" s="61">
         <f t="shared" si="0"/>
         <v>4.8463356973995273</v>
       </c>
@@ -6434,14 +5716,14 @@
       </c>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D84" s="71">
+      <c r="D84" s="69">
         <v>840</v>
       </c>
-      <c r="E84" s="77">
+      <c r="E84" s="75">
         <f t="shared" si="0"/>
         <v>7.4468085106382977</v>
       </c>
-      <c r="F84" s="62">
+      <c r="F84" s="61">
         <f t="shared" si="0"/>
         <v>4.9645390070921982</v>
       </c>
@@ -6450,14 +5732,14 @@
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D85" s="71">
+      <c r="D85" s="69">
         <v>860</v>
       </c>
-      <c r="E85" s="77">
+      <c r="E85" s="75">
         <f t="shared" si="0"/>
         <v>7.624113475177305</v>
       </c>
-      <c r="F85" s="62">
+      <c r="F85" s="61">
         <f t="shared" si="0"/>
         <v>5.08274231678487</v>
       </c>
@@ -6466,14 +5748,14 @@
       </c>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D86" s="71">
+      <c r="D86" s="69">
         <v>880</v>
       </c>
-      <c r="E86" s="77">
+      <c r="E86" s="75">
         <f t="shared" si="0"/>
         <v>7.8014184397163122</v>
       </c>
-      <c r="F86" s="62">
+      <c r="F86" s="61">
         <f t="shared" si="0"/>
         <v>5.2009456264775409</v>
       </c>
@@ -6482,14 +5764,14 @@
       </c>
     </row>
     <row r="87" spans="4:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D87" s="72">
+      <c r="D87" s="70">
         <v>900</v>
       </c>
-      <c r="E87" s="78">
+      <c r="E87" s="76">
         <f t="shared" si="0"/>
         <v>7.9787234042553195</v>
       </c>
-      <c r="F87" s="63">
+      <c r="F87" s="62">
         <f t="shared" si="0"/>
         <v>5.3191489361702127</v>
       </c>
@@ -6509,7 +5791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -6524,7 +5806,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -6534,99 +5816,99 @@
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="65"/>
+      <c r="D5" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>100</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>983</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>100</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>24.19</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>597</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>10</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>14.96</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>594</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>14.96</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.12</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>594</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.12</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>15.03</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
-        <v>29</v>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="C12" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6642,127 +5924,482 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="4.75" customWidth="1"/>
+    <col min="1" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="15">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12">
-        <f>E10*E11</f>
-        <v>12400</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
+      <c r="F8" s="15">
+        <v>20</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>150</v>
+      </c>
+      <c r="F9" s="2">
+        <v>150</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2">
+        <f>E8*E9</f>
+        <v>3000</v>
+      </c>
+      <c r="F10" s="2">
+        <f>F8*F9</f>
+        <v>3000</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2">
+        <v>460</v>
+      </c>
+      <c r="F11" s="2">
+        <v>460</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2">
+        <f>E11+E12</f>
+        <v>500</v>
+      </c>
+      <c r="F13" s="2">
+        <f>F11+F12</f>
+        <v>500</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2">
+        <f>E13*2</f>
+        <v>1000</v>
+      </c>
+      <c r="F14" s="2">
+        <f>F13*2</f>
+        <v>1000</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2">
+        <f>E9/E8</f>
+        <v>7.5</v>
+      </c>
+      <c r="F15" s="2">
+        <f>F9/F8</f>
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="13">
+        <f>E14*(E9^2)*E16/10^9</f>
+        <v>2.25</v>
+      </c>
+      <c r="F17" s="13">
+        <f>F14*(F9^2)*F16/10^9</f>
+        <v>1.125</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C116"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="1" max="2" width="5" customWidth="1"/>
+    <col min="3" max="4" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="15">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15">
+        <v>50</v>
+      </c>
+      <c r="F4" s="15">
+        <v>100</v>
+      </c>
+      <c r="G4" s="15">
+        <v>150</v>
+      </c>
+      <c r="H4" s="15">
+        <v>200</v>
+      </c>
+      <c r="I4" s="15">
+        <v>250</v>
+      </c>
+      <c r="J4" s="15">
+        <v>300</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2">
+        <v>750</v>
+      </c>
+      <c r="E5" s="2">
+        <v>750</v>
+      </c>
+      <c r="F5" s="2">
+        <v>750</v>
+      </c>
+      <c r="G5" s="2">
+        <v>750</v>
+      </c>
+      <c r="H5" s="2">
+        <v>750</v>
+      </c>
+      <c r="I5" s="2">
+        <v>750</v>
+      </c>
+      <c r="J5" s="2">
+        <v>750</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D5/D4</f>
+        <v>75</v>
+      </c>
+      <c r="E6" s="2">
+        <f>E5/E4</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <f>F5/F4</f>
+        <v>7.5</v>
+      </c>
+      <c r="G6" s="2">
+        <f>G5/G4</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H6" s="2">
+        <f>H5/H4</f>
+        <v>3.75</v>
+      </c>
+      <c r="I6" s="2">
+        <f>I5/I4</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <f>J5/J4</f>
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2">
+        <f>D6*D5</f>
+        <v>56250</v>
+      </c>
+      <c r="E7" s="2">
+        <f>E6*E5</f>
+        <v>11250</v>
+      </c>
+      <c r="F7" s="2">
+        <f>F6*F5</f>
+        <v>5625</v>
+      </c>
+      <c r="G7" s="2">
+        <f>G6*G5</f>
+        <v>3750</v>
+      </c>
+      <c r="H7" s="2">
+        <f>H6*H5</f>
+        <v>2812.5</v>
+      </c>
+      <c r="I7" s="2">
+        <f>I6*I5</f>
+        <v>2250</v>
+      </c>
+      <c r="J7" s="2">
+        <f>J6*J5</f>
+        <v>1875</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2">
+        <f>D5/D8</f>
+        <v>150</v>
+      </c>
+      <c r="E9" s="2">
+        <f>E5/E8</f>
+        <v>150</v>
+      </c>
+      <c r="F9" s="2">
+        <f>F5/F8</f>
+        <v>150</v>
+      </c>
+      <c r="G9" s="2">
+        <f>G5/G8</f>
+        <v>150</v>
+      </c>
+      <c r="H9" s="2">
+        <f>H5/H8</f>
+        <v>150</v>
+      </c>
+      <c r="I9" s="2">
+        <f>I5/I8</f>
+        <v>150</v>
+      </c>
+      <c r="J9" s="2">
+        <f>J5/J8</f>
+        <v>150</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="13">
+        <f>D7/D9</f>
+        <v>375</v>
+      </c>
+      <c r="E10" s="13">
+        <f>E7/E9</f>
+        <v>75</v>
+      </c>
+      <c r="F10" s="13">
+        <f>F7/F9</f>
+        <v>37.5</v>
+      </c>
+      <c r="G10" s="13">
+        <f>G7/G9</f>
+        <v>25</v>
+      </c>
+      <c r="H10" s="13">
+        <f>H7/H9</f>
+        <v>18.75</v>
+      </c>
+      <c r="I10" s="13">
+        <f>I7/I9</f>
+        <v>15</v>
+      </c>
+      <c r="J10" s="13">
+        <f>J7/J9</f>
+        <v>12.5</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="46"/>
+      <c r="C11" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
+      <c r="C12" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6770,94 +6407,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>150</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <f>D7*(G8/G7)</f>
-        <v>750</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8">
-        <f>D8^2*I7/(D7^2)</f>
-        <v>15000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -12,12 +12,12 @@
     <sheet name="Snubber" sheetId="6" r:id="rId3"/>
     <sheet name="Load Resistance" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="133">
   <si>
     <t>Inductance[uH]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,173 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Power MOSFET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-Semi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRFP460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±30V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7160pF/400V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4100pF/25V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCH023N65S3L4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCH041N60F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14365pF/100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000pF/25V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±20V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±20V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pdiss[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdss[V]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id(cont)[A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Id(100</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>℃)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rds[m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Load 50</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω에서도 MOSFET이 견딜 수 있도록 부품 변경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDL100N50F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +630,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0\ &quot;%&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +687,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +1135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,9 +1263,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1112,12 +1298,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,12 +1313,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1147,6 +1321,44 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,7 +1425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1222,6 +1433,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2186,13 +2417,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244093440"/>
-        <c:axId val="235695488"/>
+        <c:axId val="161831584"/>
+        <c:axId val="161832144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244093440"/>
+        <c:axId val="161831584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2455,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2234,6 +2463,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2272,7 +2521,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235695488"/>
+        <c:crossAx val="161832144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2280,7 +2529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235695488"/>
+        <c:axId val="161832144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,7 +2576,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2336,6 +2584,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2368,7 +2636,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244093440"/>
+        <c:crossAx val="161831584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2382,7 +2650,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4015,8 +4282,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>610635</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>286785</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>47822</xdr:rowOff>
     </xdr:to>
@@ -4091,7 +4358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4126,7 +4393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4337,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4543,7 +4810,7 @@
       <c r="F19" s="28">
         <v>300</v>
       </c>
-      <c r="G19" s="90">
+      <c r="G19" s="85">
         <f>G18*(2^0.5)</f>
         <v>311.12698372208092</v>
       </c>
@@ -4601,13 +4868,13 @@
       <c r="E21" s="49">
         <v>18.8</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="86">
         <v>18.8</v>
       </c>
-      <c r="G21" s="91">
+      <c r="G21" s="86">
         <v>20</v>
       </c>
-      <c r="H21" s="91">
+      <c r="H21" s="86">
         <v>12.5</v>
       </c>
       <c r="I21" s="29">
@@ -5011,10 +5278,10 @@
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="70">
         <v>2820</v>
       </c>
       <c r="F39" s="58">
@@ -5022,21 +5289,21 @@
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="71">
         <v>10</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="63">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="73">
+      <c r="E41" s="72">
         <f>E39*E40*2/100</f>
         <v>564</v>
       </c>
@@ -5046,24 +5313,24 @@
       </c>
     </row>
     <row r="42" spans="3:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="74" t="s">
+      <c r="E42" s="73" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="76" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D43" s="69">
+      <c r="D43" s="68">
         <v>20</v>
       </c>
-      <c r="E43" s="75">
+      <c r="E43" s="74">
         <f>($D43/E$41)*5</f>
         <v>0.1773049645390071</v>
       </c>
@@ -5076,10 +5343,10 @@
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D44" s="69">
+      <c r="D44" s="68">
         <v>40</v>
       </c>
-      <c r="E44" s="75">
+      <c r="E44" s="74">
         <f t="shared" ref="E44:F87" si="0">($D44/E$41)*5</f>
         <v>0.3546099290780142</v>
       </c>
@@ -5092,10 +5359,10 @@
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D45" s="69">
+      <c r="D45" s="68">
         <v>60</v>
       </c>
-      <c r="E45" s="75">
+      <c r="E45" s="74">
         <f t="shared" si="0"/>
         <v>0.53191489361702127</v>
       </c>
@@ -5108,10 +5375,10 @@
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D46" s="69">
+      <c r="D46" s="68">
         <v>80</v>
       </c>
-      <c r="E46" s="75">
+      <c r="E46" s="74">
         <f t="shared" si="0"/>
         <v>0.70921985815602839</v>
       </c>
@@ -5124,10 +5391,10 @@
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D47" s="69">
+      <c r="D47" s="68">
         <v>100</v>
       </c>
-      <c r="E47" s="75">
+      <c r="E47" s="74">
         <f t="shared" si="0"/>
         <v>0.88652482269503552</v>
       </c>
@@ -5140,10 +5407,10 @@
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D48" s="69">
+      <c r="D48" s="68">
         <v>120</v>
       </c>
-      <c r="E48" s="75">
+      <c r="E48" s="74">
         <f t="shared" si="0"/>
         <v>1.0638297872340425</v>
       </c>
@@ -5156,10 +5423,10 @@
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D49" s="69">
+      <c r="D49" s="68">
         <v>140</v>
       </c>
-      <c r="E49" s="75">
+      <c r="E49" s="74">
         <f t="shared" si="0"/>
         <v>1.2411347517730495</v>
       </c>
@@ -5172,10 +5439,10 @@
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D50" s="69">
+      <c r="D50" s="68">
         <v>160</v>
       </c>
-      <c r="E50" s="75">
+      <c r="E50" s="74">
         <f t="shared" si="0"/>
         <v>1.4184397163120568</v>
       </c>
@@ -5188,10 +5455,10 @@
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D51" s="69">
+      <c r="D51" s="68">
         <v>180</v>
       </c>
-      <c r="E51" s="75">
+      <c r="E51" s="74">
         <f t="shared" si="0"/>
         <v>1.5957446808510638</v>
       </c>
@@ -5204,10 +5471,10 @@
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D52" s="69">
+      <c r="D52" s="68">
         <v>200</v>
       </c>
-      <c r="E52" s="75">
+      <c r="E52" s="74">
         <f t="shared" si="0"/>
         <v>1.773049645390071</v>
       </c>
@@ -5220,10 +5487,10 @@
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D53" s="69">
+      <c r="D53" s="68">
         <v>220</v>
       </c>
-      <c r="E53" s="75">
+      <c r="E53" s="74">
         <f t="shared" si="0"/>
         <v>1.9503546099290781</v>
       </c>
@@ -5236,10 +5503,10 @@
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D54" s="69">
+      <c r="D54" s="68">
         <v>240</v>
       </c>
-      <c r="E54" s="75">
+      <c r="E54" s="74">
         <f t="shared" si="0"/>
         <v>2.1276595744680851</v>
       </c>
@@ -5252,10 +5519,10 @@
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D55" s="69">
+      <c r="D55" s="68">
         <v>260</v>
       </c>
-      <c r="E55" s="75">
+      <c r="E55" s="74">
         <f t="shared" si="0"/>
         <v>2.3049645390070923</v>
       </c>
@@ -5268,10 +5535,10 @@
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D56" s="69">
+      <c r="D56" s="68">
         <v>280</v>
       </c>
-      <c r="E56" s="75">
+      <c r="E56" s="74">
         <f t="shared" si="0"/>
         <v>2.4822695035460991</v>
       </c>
@@ -5284,10 +5551,10 @@
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D57" s="69">
+      <c r="D57" s="68">
         <v>300</v>
       </c>
-      <c r="E57" s="75">
+      <c r="E57" s="74">
         <f t="shared" si="0"/>
         <v>2.6595744680851063</v>
       </c>
@@ -5300,10 +5567,10 @@
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D58" s="69">
+      <c r="D58" s="68">
         <v>320</v>
       </c>
-      <c r="E58" s="75">
+      <c r="E58" s="74">
         <f t="shared" si="0"/>
         <v>2.8368794326241136</v>
       </c>
@@ -5316,10 +5583,10 @@
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D59" s="69">
+      <c r="D59" s="68">
         <v>340</v>
       </c>
-      <c r="E59" s="75">
+      <c r="E59" s="74">
         <f t="shared" si="0"/>
         <v>3.0141843971631204</v>
       </c>
@@ -5332,10 +5599,10 @@
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D60" s="69">
+      <c r="D60" s="68">
         <v>360</v>
       </c>
-      <c r="E60" s="75">
+      <c r="E60" s="74">
         <f t="shared" si="0"/>
         <v>3.1914893617021276</v>
       </c>
@@ -5348,10 +5615,10 @@
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D61" s="69">
+      <c r="D61" s="68">
         <v>380</v>
       </c>
-      <c r="E61" s="75">
+      <c r="E61" s="74">
         <f t="shared" si="0"/>
         <v>3.3687943262411348</v>
       </c>
@@ -5364,10 +5631,10 @@
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D62" s="69">
+      <c r="D62" s="68">
         <v>400</v>
       </c>
-      <c r="E62" s="75">
+      <c r="E62" s="74">
         <f t="shared" si="0"/>
         <v>3.5460992907801421</v>
       </c>
@@ -5380,10 +5647,10 @@
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D63" s="69">
+      <c r="D63" s="68">
         <v>420</v>
       </c>
-      <c r="E63" s="75">
+      <c r="E63" s="74">
         <f t="shared" si="0"/>
         <v>3.7234042553191489</v>
       </c>
@@ -5396,10 +5663,10 @@
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D64" s="69">
+      <c r="D64" s="68">
         <v>440</v>
       </c>
-      <c r="E64" s="75">
+      <c r="E64" s="74">
         <f t="shared" si="0"/>
         <v>3.9007092198581561</v>
       </c>
@@ -5412,10 +5679,10 @@
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D65" s="69">
+      <c r="D65" s="68">
         <v>460</v>
       </c>
-      <c r="E65" s="75">
+      <c r="E65" s="74">
         <f t="shared" si="0"/>
         <v>4.0780141843971629</v>
       </c>
@@ -5428,10 +5695,10 @@
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D66" s="69">
+      <c r="D66" s="68">
         <v>480</v>
       </c>
-      <c r="E66" s="75">
+      <c r="E66" s="74">
         <f t="shared" si="0"/>
         <v>4.2553191489361701</v>
       </c>
@@ -5444,10 +5711,10 @@
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D67" s="69">
+      <c r="D67" s="68">
         <v>500</v>
       </c>
-      <c r="E67" s="75">
+      <c r="E67" s="74">
         <f t="shared" si="0"/>
         <v>4.4326241134751774</v>
       </c>
@@ -5460,10 +5727,10 @@
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D68" s="69">
+      <c r="D68" s="68">
         <v>520</v>
       </c>
-      <c r="E68" s="75">
+      <c r="E68" s="74">
         <f t="shared" si="0"/>
         <v>4.6099290780141846</v>
       </c>
@@ -5476,10 +5743,10 @@
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D69" s="69">
+      <c r="D69" s="68">
         <v>540</v>
       </c>
-      <c r="E69" s="75">
+      <c r="E69" s="74">
         <f t="shared" si="0"/>
         <v>4.7872340425531918</v>
       </c>
@@ -5492,10 +5759,10 @@
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D70" s="69">
+      <c r="D70" s="68">
         <v>560</v>
       </c>
-      <c r="E70" s="75">
+      <c r="E70" s="74">
         <f t="shared" si="0"/>
         <v>4.9645390070921982</v>
       </c>
@@ -5508,10 +5775,10 @@
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D71" s="69">
+      <c r="D71" s="68">
         <v>580</v>
       </c>
-      <c r="E71" s="75">
+      <c r="E71" s="74">
         <f t="shared" si="0"/>
         <v>5.1418439716312054</v>
       </c>
@@ -5524,10 +5791,10 @@
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D72" s="69">
+      <c r="D72" s="68">
         <v>600</v>
       </c>
-      <c r="E72" s="75">
+      <c r="E72" s="74">
         <f t="shared" si="0"/>
         <v>5.3191489361702127</v>
       </c>
@@ -5540,10 +5807,10 @@
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D73" s="69">
+      <c r="D73" s="68">
         <v>620</v>
       </c>
-      <c r="E73" s="75">
+      <c r="E73" s="74">
         <f t="shared" si="0"/>
         <v>5.4964539007092199</v>
       </c>
@@ -5556,10 +5823,10 @@
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D74" s="69">
+      <c r="D74" s="68">
         <v>640</v>
       </c>
-      <c r="E74" s="75">
+      <c r="E74" s="74">
         <f t="shared" si="0"/>
         <v>5.6737588652482271</v>
       </c>
@@ -5572,10 +5839,10 @@
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D75" s="69">
+      <c r="D75" s="68">
         <v>660</v>
       </c>
-      <c r="E75" s="75">
+      <c r="E75" s="74">
         <f t="shared" si="0"/>
         <v>5.8510638297872344</v>
       </c>
@@ -5588,10 +5855,10 @@
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D76" s="69">
+      <c r="D76" s="68">
         <v>680</v>
       </c>
-      <c r="E76" s="75">
+      <c r="E76" s="74">
         <f t="shared" si="0"/>
         <v>6.0283687943262407</v>
       </c>
@@ -5604,10 +5871,10 @@
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D77" s="69">
+      <c r="D77" s="68">
         <v>700</v>
       </c>
-      <c r="E77" s="75">
+      <c r="E77" s="74">
         <f t="shared" si="0"/>
         <v>6.205673758865248</v>
       </c>
@@ -5620,10 +5887,10 @@
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D78" s="69">
+      <c r="D78" s="68">
         <v>720</v>
       </c>
-      <c r="E78" s="75">
+      <c r="E78" s="74">
         <f t="shared" si="0"/>
         <v>6.3829787234042552</v>
       </c>
@@ -5636,10 +5903,10 @@
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D79" s="69">
+      <c r="D79" s="68">
         <v>740</v>
       </c>
-      <c r="E79" s="75">
+      <c r="E79" s="74">
         <f t="shared" si="0"/>
         <v>6.5602836879432624</v>
       </c>
@@ -5652,10 +5919,10 @@
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D80" s="69">
+      <c r="D80" s="68">
         <v>760</v>
       </c>
-      <c r="E80" s="75">
+      <c r="E80" s="74">
         <f t="shared" si="0"/>
         <v>6.7375886524822697</v>
       </c>
@@ -5668,10 +5935,10 @@
       </c>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D81" s="69">
+      <c r="D81" s="68">
         <v>780</v>
       </c>
-      <c r="E81" s="75">
+      <c r="E81" s="74">
         <f t="shared" si="0"/>
         <v>6.9148936170212769</v>
       </c>
@@ -5684,10 +5951,10 @@
       </c>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D82" s="69">
+      <c r="D82" s="68">
         <v>800</v>
       </c>
-      <c r="E82" s="75">
+      <c r="E82" s="74">
         <f t="shared" si="0"/>
         <v>7.0921985815602842</v>
       </c>
@@ -5700,10 +5967,10 @@
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D83" s="69">
+      <c r="D83" s="68">
         <v>820</v>
       </c>
-      <c r="E83" s="75">
+      <c r="E83" s="74">
         <f t="shared" si="0"/>
         <v>7.2695035460992905</v>
       </c>
@@ -5716,10 +5983,10 @@
       </c>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D84" s="69">
+      <c r="D84" s="68">
         <v>840</v>
       </c>
-      <c r="E84" s="75">
+      <c r="E84" s="74">
         <f t="shared" si="0"/>
         <v>7.4468085106382977</v>
       </c>
@@ -5732,10 +5999,10 @@
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D85" s="69">
+      <c r="D85" s="68">
         <v>860</v>
       </c>
-      <c r="E85" s="75">
+      <c r="E85" s="74">
         <f t="shared" si="0"/>
         <v>7.624113475177305</v>
       </c>
@@ -5748,10 +6015,10 @@
       </c>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D86" s="69">
+      <c r="D86" s="68">
         <v>880</v>
       </c>
-      <c r="E86" s="75">
+      <c r="E86" s="74">
         <f t="shared" si="0"/>
         <v>7.8014184397163122</v>
       </c>
@@ -5764,10 +6031,10 @@
       </c>
     </row>
     <row r="87" spans="4:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D87" s="70">
+      <c r="D87" s="69">
         <v>900</v>
       </c>
-      <c r="E87" s="76">
+      <c r="E87" s="75">
         <f t="shared" si="0"/>
         <v>7.9787234042553195</v>
       </c>
@@ -5791,7 +6058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -5820,14 +6087,14 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="79" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="80"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11" t="s">
@@ -5905,7 +6172,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="4"/>
@@ -5959,7 +6226,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="78" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -5973,7 +6240,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="15">
@@ -5987,7 +6254,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="82" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="2">
@@ -5996,12 +6263,12 @@
       <c r="F9" s="2">
         <v>150</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="79" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="82" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="2">
@@ -6012,12 +6279,12 @@
         <f>F8*F9</f>
         <v>3000</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="79" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="82" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="2">
@@ -6026,12 +6293,12 @@
       <c r="F11" s="2">
         <v>460</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="79" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="82" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="2">
@@ -6040,12 +6307,12 @@
       <c r="F12" s="2">
         <v>40</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="79" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="82" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="2">
@@ -6056,12 +6323,12 @@
         <f>F11+F12</f>
         <v>500</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="79" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="82" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="2">
@@ -6072,12 +6339,12 @@
         <f>F13*2</f>
         <v>1000</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="79" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="82" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="2">
@@ -6088,12 +6355,12 @@
         <f>F9/F8</f>
         <v>7.5</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="80" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="82" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="2">
@@ -6102,12 +6369,12 @@
       <c r="F16" s="2">
         <v>50</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="79" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="83" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="13">
@@ -6136,16 +6403,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5" customWidth="1"/>
-    <col min="3" max="4" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
@@ -6157,7 +6439,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="94" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="15">
@@ -6181,12 +6463,12 @@
       <c r="J4" s="15">
         <v>300</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="84" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="95" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="2">
@@ -6210,84 +6492,84 @@
       <c r="J5" s="2">
         <v>750</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="79" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="95" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="2">
-        <f>D5/D4</f>
+        <f t="shared" ref="D6:J6" si="0">D5/D4</f>
         <v>75</v>
       </c>
       <c r="E6" s="2">
-        <f>E5/E4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F6" s="2">
-        <f>F5/F4</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="G6" s="2">
-        <f>G5/G4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <f>H5/H4</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="I6" s="2">
-        <f>I5/I4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J6" s="2">
-        <f>J5/J4</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="79" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="95" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="2">
-        <f>D6*D5</f>
+        <f t="shared" ref="D7:J7" si="1">D6*D5</f>
         <v>56250</v>
       </c>
       <c r="E7" s="2">
-        <f>E6*E5</f>
+        <f t="shared" si="1"/>
         <v>11250</v>
       </c>
       <c r="F7" s="2">
-        <f>F6*F5</f>
+        <f t="shared" si="1"/>
         <v>5625</v>
       </c>
       <c r="G7" s="2">
-        <f>G6*G5</f>
+        <f t="shared" si="1"/>
         <v>3750</v>
       </c>
       <c r="H7" s="2">
-        <f>H6*H5</f>
+        <f t="shared" si="1"/>
         <v>2812.5</v>
       </c>
       <c r="I7" s="2">
-        <f>I6*I5</f>
+        <f t="shared" si="1"/>
         <v>2250</v>
       </c>
       <c r="J7" s="2">
-        <f>J6*J5</f>
+        <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="79" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="95" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="2">
@@ -6311,76 +6593,76 @@
       <c r="J8" s="2">
         <v>5</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="79" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="95" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="2">
-        <f>D5/D8</f>
+        <f t="shared" ref="D9:J9" si="2">D5/D8</f>
         <v>150</v>
       </c>
       <c r="E9" s="2">
-        <f>E5/E8</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="F9" s="2">
-        <f>F5/F8</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G9" s="2">
-        <f>G5/G8</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H9" s="2">
-        <f>H5/H8</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="I9" s="2">
-        <f>I5/I8</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="J9" s="2">
-        <f>J5/J8</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="79" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="96" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="13">
-        <f>D7/D9</f>
+        <f t="shared" ref="D10:J10" si="3">D7/D9</f>
         <v>375</v>
       </c>
       <c r="E10" s="13">
-        <f>E7/E9</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="F10" s="13">
-        <f>F7/F9</f>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="G10" s="13">
-        <f>G7/G9</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H10" s="13">
-        <f>H7/H9</f>
+        <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
       <c r="I10" s="13">
-        <f>I7/I9</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="J10" s="13">
-        <f>J7/J9</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="K10" s="59" t="s">
@@ -6389,22 +6671,218 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="46"/>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="87" t="s">
         <v>99</v>
       </c>
       <c r="D11" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="46"/>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="87" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="46"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" s="93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="15">
+        <v>500</v>
+      </c>
+      <c r="F26" s="15">
+        <v>20</v>
+      </c>
+      <c r="G26" s="15">
+        <v>12</v>
+      </c>
+      <c r="H26" s="15">
+        <v>270</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="15">
+        <v>250</v>
+      </c>
+      <c r="M26" s="97">
+        <v>3780</v>
+      </c>
+      <c r="N26" s="100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2">
+        <v>650</v>
+      </c>
+      <c r="F27" s="2">
+        <v>75</v>
+      </c>
+      <c r="G27" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="2">
+        <v>595</v>
+      </c>
+      <c r="M27" s="98">
+        <v>26630</v>
+      </c>
+      <c r="N27" s="79"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="2">
+        <v>600</v>
+      </c>
+      <c r="F28" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>41</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="2">
+        <v>595</v>
+      </c>
+      <c r="M28" s="98">
+        <v>10560</v>
+      </c>
+      <c r="N28" s="79"/>
+    </row>
+    <row r="29" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="89">
+        <v>500</v>
+      </c>
+      <c r="F29" s="89">
+        <v>100</v>
+      </c>
+      <c r="G29" s="89">
+        <v>60</v>
+      </c>
+      <c r="H29" s="89">
+        <v>55</v>
+      </c>
+      <c r="I29" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="89">
+        <v>2500</v>
+      </c>
+      <c r="M29" s="99">
+        <v>16900</v>
+      </c>
+      <c r="N29" s="101" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Power" sheetId="2" r:id="rId1"/>
     <sheet name="Transformer" sheetId="5" r:id="rId2"/>
     <sheet name="Snubber" sheetId="6" r:id="rId3"/>
     <sheet name="Load Resistance" sheetId="4" r:id="rId4"/>
+    <sheet name="CON" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="153">
   <si>
     <t>Inductance[uH]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +619,86 @@
   </si>
   <si>
     <t>FDL100N50F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMPS-N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMPS-L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE +</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하네스에서 SMPS-L과 연결됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB상에서 Pin-1과 연결됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB상에서 Pin-6과 연결됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMPS-L과 바로 연결하도록 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하네스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main-N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main-L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1360,6 +1441,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1425,6 +1507,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1433,26 +1516,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2417,12 +2480,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161831584"/>
-        <c:axId val="161832144"/>
+        <c:axId val="216091136"/>
+        <c:axId val="48427520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161831584"/>
+        <c:axId val="216091136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,6 +2519,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2463,26 +2528,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2521,7 +2566,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161832144"/>
+        <c:crossAx val="48427520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2529,7 +2574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161832144"/>
+        <c:axId val="48427520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,6 +2621,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2584,26 +2630,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2636,7 +2662,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161831584"/>
+        <c:crossAx val="216091136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2650,6 +2676,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4278,13 +4305,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>286785</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>47822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4358,7 +4385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4393,7 +4420,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4604,8 +4631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6403,10 +6430,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N29"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6670,212 +6697,277 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="15">
+        <v>220</v>
+      </c>
+      <c r="E11" s="15">
+        <v>220</v>
+      </c>
+      <c r="F11" s="15">
+        <v>220</v>
+      </c>
+      <c r="G11" s="15">
+        <v>220</v>
+      </c>
+      <c r="H11" s="15">
+        <v>220</v>
+      </c>
+      <c r="I11" s="15">
+        <v>220</v>
+      </c>
+      <c r="J11" s="15">
+        <v>220</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="104">
+        <f>D7/D11</f>
+        <v>255.68181818181819</v>
+      </c>
+      <c r="E12" s="104">
+        <f t="shared" ref="E12:J12" si="4">E7/E11</f>
+        <v>51.136363636363633</v>
+      </c>
+      <c r="F12" s="104">
+        <f t="shared" si="4"/>
+        <v>25.568181818181817</v>
+      </c>
+      <c r="G12" s="104">
+        <f t="shared" si="4"/>
+        <v>17.045454545454547</v>
+      </c>
+      <c r="H12" s="104">
+        <f t="shared" si="4"/>
+        <v>12.784090909090908</v>
+      </c>
+      <c r="I12" s="104">
+        <f t="shared" si="4"/>
+        <v>10.227272727272727</v>
+      </c>
+      <c r="J12" s="104">
+        <f t="shared" si="4"/>
+        <v>8.5227272727272734</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="46"/>
+      <c r="C13" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="46"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="87" t="s">
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="46"/>
+      <c r="C14" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="D14" s="46"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="77" t="s">
+    <row r="26" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="77" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="91" t="s">
+    <row r="27" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D27" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="E27" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F27" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="92" t="s">
+      <c r="G27" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="92" t="s">
+      <c r="H27" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="I25" s="92" t="s">
+      <c r="I27" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="92" t="s">
+      <c r="J27" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="92" t="s">
+      <c r="K27" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="92" t="s">
+      <c r="L27" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="M25" s="92" t="s">
+      <c r="M27" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="93" t="s">
+      <c r="N27" s="93" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C26" s="14" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E28" s="15">
         <v>500</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F28" s="15">
         <v>20</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G28" s="15">
         <v>12</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H28" s="15">
         <v>270</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J28" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K28" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L28" s="15">
         <v>250</v>
       </c>
-      <c r="M26" s="97">
+      <c r="M28" s="97">
         <v>3780</v>
       </c>
-      <c r="N26" s="100" t="s">
+      <c r="N28" s="100" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>650</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>75</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G29" s="2">
         <v>65.8</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="2">
         <v>23</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K29" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L29" s="2">
         <v>595</v>
       </c>
-      <c r="M27" s="98">
+      <c r="M29" s="98">
         <v>26630</v>
       </c>
-      <c r="N27" s="79"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
+      <c r="N29" s="79"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="2">
         <v>600</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="2">
         <v>76</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <v>48.1</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>41</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K30" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L30" s="2">
         <v>595</v>
       </c>
-      <c r="M28" s="98">
+      <c r="M30" s="98">
         <v>10560</v>
       </c>
-      <c r="N28" s="79"/>
-    </row>
-    <row r="29" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="88" t="s">
+      <c r="N30" s="79"/>
+    </row>
+    <row r="31" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D31" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E31" s="89">
         <v>500</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F31" s="89">
         <v>100</v>
       </c>
-      <c r="G29" s="89">
+      <c r="G31" s="89">
         <v>60</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H31" s="89">
         <v>55</v>
       </c>
-      <c r="I29" s="89" t="s">
+      <c r="I31" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="89" t="s">
+      <c r="J31" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="90" t="s">
+      <c r="K31" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="89">
+      <c r="L31" s="89">
         <v>2500</v>
       </c>
-      <c r="M29" s="99">
+      <c r="M31" s="99">
         <v>16900</v>
       </c>
-      <c r="N29" s="101" t="s">
+      <c r="N31" s="101" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6885,4 +6977,145 @@
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Power" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Snubber" sheetId="6" r:id="rId3"/>
     <sheet name="Load Resistance" sheetId="4" r:id="rId4"/>
     <sheet name="CON" sheetId="7" r:id="rId5"/>
+    <sheet name="Current check" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="181">
   <si>
     <t>Inductance[uH]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,11 +695,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FUSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.00mmPitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용전류 : 20A / 허용전압 : 250V / 핀수 : 3pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900M (3PIN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P000478769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900M (8PIN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P000478773</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>762C (8PIN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.62mmPitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용전류 : 20A / 허용전압 : 250V / 핀수 : 8pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">허용전류 : 10A / 허용전압 : 250V / 핀수 : 8pin </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P000478607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>762C (4PIN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">허용전류 : 10A / 허용전압 : 250V / 핀수 : 4pin </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P000478603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAS 6-NP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measuring range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout @ 0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mV/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,7 +1329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1391,9 +1504,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1435,13 +1545,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2482,11 +2612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216091136"/>
-        <c:axId val="48427520"/>
+        <c:axId val="205685248"/>
+        <c:axId val="194865984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216091136"/>
+        <c:axId val="205685248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +2696,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48427520"/>
+        <c:crossAx val="194865984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2574,7 +2704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48427520"/>
+        <c:axId val="194865984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,7 +2792,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216091136"/>
+        <c:crossAx val="205685248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4631,8 +4761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4837,7 +4967,7 @@
       <c r="F19" s="28">
         <v>300</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="84">
         <f>G18*(2^0.5)</f>
         <v>311.12698372208092</v>
       </c>
@@ -4895,13 +5025,13 @@
       <c r="E21" s="49">
         <v>18.8</v>
       </c>
-      <c r="F21" s="86">
+      <c r="F21" s="85">
         <v>18.8</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="85">
         <v>20</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="85">
         <v>12.5</v>
       </c>
       <c r="I21" s="29">
@@ -6114,14 +6244,14 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="102" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="104"/>
     </row>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11" t="s">
@@ -6433,7 +6563,7 @@
   <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:O20"/>
+      <selection activeCell="O11" sqref="O11:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6466,7 +6596,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="93" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="15">
@@ -6490,12 +6620,12 @@
       <c r="J4" s="15">
         <v>300</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="109" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="94" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="2">
@@ -6519,12 +6649,12 @@
       <c r="J5" s="2">
         <v>750</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="110" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="94" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="2">
@@ -6555,12 +6685,12 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="110" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="2">
@@ -6591,12 +6721,12 @@
         <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="110" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="94" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="2">
@@ -6620,12 +6750,12 @@
       <c r="J8" s="2">
         <v>5</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="110" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="94" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="2">
@@ -6656,12 +6786,12 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="110" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="95" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="13">
@@ -6692,12 +6822,12 @@
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="111" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="93" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="15">
@@ -6721,56 +6851,56 @@
       <c r="J11" s="15">
         <v>220</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="101" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="104">
-        <f>D7/D11</f>
-        <v>255.68181818181819</v>
-      </c>
-      <c r="E12" s="104">
-        <f t="shared" ref="E12:J12" si="4">E7/E11</f>
-        <v>51.136363636363633</v>
-      </c>
-      <c r="F12" s="104">
+      <c r="D12" s="102">
+        <f>(D7/D11)/(2^0.5)</f>
+        <v>180.79434746246952</v>
+      </c>
+      <c r="E12" s="102">
+        <f>(E7/E11)/(2^0.5)</f>
+        <v>36.158869492493906</v>
+      </c>
+      <c r="F12" s="102">
+        <f>(F7/F11)/(2^0.5)</f>
+        <v>18.079434746246953</v>
+      </c>
+      <c r="G12" s="102">
+        <f>(G7/G11)/(2^0.5)</f>
+        <v>12.05295649749797</v>
+      </c>
+      <c r="H12" s="102">
+        <f t="shared" ref="H12:J12" si="4">(H7/H11)/(2^0.5)</f>
+        <v>9.0397173731234766</v>
+      </c>
+      <c r="I12" s="102">
         <f t="shared" si="4"/>
-        <v>25.568181818181817</v>
-      </c>
-      <c r="G12" s="104">
+        <v>7.2317738984987807</v>
+      </c>
+      <c r="J12" s="102">
         <f t="shared" si="4"/>
-        <v>17.045454545454547</v>
-      </c>
-      <c r="H12" s="104">
-        <f t="shared" si="4"/>
-        <v>12.784090909090908</v>
-      </c>
-      <c r="I12" s="104">
-        <f t="shared" si="4"/>
-        <v>10.227272727272727</v>
-      </c>
-      <c r="J12" s="104">
-        <f t="shared" si="4"/>
-        <v>8.5227272727272734</v>
-      </c>
-      <c r="K12" s="59" t="s">
+        <v>6.026478248748985</v>
+      </c>
+      <c r="K12" s="111" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="46"/>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="86" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="46"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="46"/>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="86" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="46"/>
@@ -6786,40 +6916,40 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="92" t="s">
+      <c r="E27" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="I27" s="92" t="s">
+      <c r="I27" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="92" t="s">
+      <c r="J27" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="K27" s="92" t="s">
+      <c r="K27" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="92" t="s">
+      <c r="L27" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="M27" s="92" t="s">
+      <c r="M27" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="93" t="s">
+      <c r="N27" s="92" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6854,10 +6984,10 @@
       <c r="L28" s="15">
         <v>250</v>
       </c>
-      <c r="M28" s="97">
+      <c r="M28" s="96">
         <v>3780</v>
       </c>
-      <c r="N28" s="100" t="s">
+      <c r="N28" s="99" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6892,7 +7022,7 @@
       <c r="L29" s="2">
         <v>595</v>
       </c>
-      <c r="M29" s="98">
+      <c r="M29" s="97">
         <v>26630</v>
       </c>
       <c r="N29" s="79"/>
@@ -6928,46 +7058,46 @@
       <c r="L30" s="2">
         <v>595</v>
       </c>
-      <c r="M30" s="98">
+      <c r="M30" s="97">
         <v>10560</v>
       </c>
       <c r="N30" s="79"/>
     </row>
     <row r="31" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="88">
         <v>500</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="88">
         <v>100</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="88">
         <v>60</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="88">
         <v>55</v>
       </c>
-      <c r="I31" s="89" t="s">
+      <c r="I31" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="J31" s="89" t="s">
+      <c r="J31" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="K31" s="90" t="s">
+      <c r="K31" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="L31" s="89">
+      <c r="L31" s="88">
         <v>2500</v>
       </c>
-      <c r="M31" s="99">
+      <c r="M31" s="98">
         <v>16900</v>
       </c>
-      <c r="N31" s="101" t="s">
+      <c r="N31" s="100" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6981,10 +7111,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F16"/>
+  <dimension ref="B3:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6992,14 +7122,18 @@
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>137</v>
       </c>
@@ -7010,7 +7144,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -7021,7 +7155,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -7029,7 +7163,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -7043,7 +7177,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -7054,7 +7188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -7062,7 +7196,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -7076,12 +7210,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -7089,29 +7228,220 @@
         <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="108"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>138</v>
+      </c>
+      <c r="E16" s="108"/>
+      <c r="H16" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="106">
+        <v>450</v>
+      </c>
+      <c r="L16" s="106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17">
+        <v>1090</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18">
+        <v>760</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="106">
+        <v>380</v>
+      </c>
+      <c r="L19" s="107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7">
+        <v>-20</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8">
+        <v>0.375</v>
+      </c>
+      <c r="G8">
+        <v>4.625</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10">
+        <v>104.2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
+++ b/2_LF_Generator_Main/3_Review data/LF_Generator Main PCB review Data V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Power" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Load Resistance" sheetId="4" r:id="rId4"/>
     <sheet name="CON" sheetId="7" r:id="rId5"/>
     <sheet name="Current check" sheetId="8" r:id="rId6"/>
+    <sheet name="Pulse width" sheetId="9" r:id="rId7"/>
+    <sheet name="Origin" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="240">
   <si>
     <t>Inductance[uH]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,10 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAS 6-NP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,6 +810,251 @@
   </si>
   <si>
     <t>I_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAS 6-NP 기존 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output LPF design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KHz</t>
+  </si>
+  <si>
+    <t>KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequency range가 10~100KHz이므로 Fmax의 두배를 Fc로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cf_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Transducer feedback review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period의 10%만 Plasma가 On된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse width_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse가 두개 이므로 전체 On되는 Pulse width는 두배가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse width_total_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L과 C에 의해 Pulse의 rising/falling time이 발생하므로 그에 대한 영향을 T의 10%로 감안한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_load
+[Ω]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_out
+[A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_cas6
+[V]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_in
+[A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_in_avg
+[A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_out_peak
+[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_out(on)_max
+[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Peak current에 대한 ADC value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2/N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_R19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer Voltage measurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Power Range</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>Duty</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>On Time Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +1141,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,8 +1172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1325,11 +1574,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1572,6 +1873,159 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1580,17 +2034,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFF99CC"/>
       <color rgb="FFB7DEE8"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2612,11 +3063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205685248"/>
-        <c:axId val="194865984"/>
+        <c:axId val="175540224"/>
+        <c:axId val="207302592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205685248"/>
+        <c:axId val="175540224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +3147,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194865984"/>
+        <c:crossAx val="207302592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2704,7 +3155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194865984"/>
+        <c:axId val="207302592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +3243,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205685248"/>
+        <c:crossAx val="175540224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3541,7 +3992,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="904876" y="2638425"/>
+          <a:off x="904876" y="2647950"/>
           <a:ext cx="5181600" cy="4156908"/>
           <a:chOff x="904876" y="2428875"/>
           <a:chExt cx="5181600" cy="4156908"/>
@@ -3722,7 +4173,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6362700" y="2638425"/>
+          <a:off x="6362700" y="2647950"/>
           <a:ext cx="5086350" cy="4132659"/>
           <a:chOff x="6362700" y="2428875"/>
           <a:chExt cx="5086350" cy="4132659"/>
@@ -3903,7 +4354,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="904875" y="7029451"/>
+          <a:off x="904875" y="7038976"/>
           <a:ext cx="5181600" cy="4322978"/>
           <a:chOff x="904875" y="6819901"/>
           <a:chExt cx="5181600" cy="4322978"/>
@@ -4084,7 +4535,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6296025" y="7019925"/>
+          <a:off x="6296025" y="7029450"/>
           <a:ext cx="5438775" cy="4316369"/>
           <a:chOff x="6296025" y="6810375"/>
           <a:chExt cx="5438775" cy="4316369"/>
@@ -4265,7 +4716,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="904875" y="11639550"/>
+          <a:off x="904875" y="11649075"/>
           <a:ext cx="10868025" cy="4085296"/>
           <a:chOff x="904875" y="11430000"/>
           <a:chExt cx="10868025" cy="4085296"/>
@@ -4461,6 +4912,49 @@
         <a:xfrm>
           <a:off x="952500" y="2847975"/>
           <a:ext cx="7411485" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314691</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134475" y="2609850"/>
+          <a:ext cx="2619741" cy="943107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4761,8 +5255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6213,10 +6707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6228,32 +6722,44 @@
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="103" t="s">
+      <c r="K4" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="103" t="s">
+      <c r="E5" s="113"/>
+      <c r="F5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="104"/>
-    </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="113"/>
+      <c r="L5" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="15">
+        <v>150</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11" t="s">
         <v>1</v>
       </c>
@@ -6266,8 +6772,17 @@
       <c r="G6" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D7" s="9">
         <v>100</v>
       </c>
@@ -6280,8 +6795,18 @@
       <c r="G7" s="10">
         <v>24.19</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="2">
+        <f>M5*M6</f>
+        <v>750</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D8" s="5">
         <v>10</v>
       </c>
@@ -6294,8 +6819,17 @@
       <c r="G8" s="6">
         <v>14.96</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
         <v>1</v>
       </c>
@@ -6308,8 +6842,17 @@
       <c r="G9" s="6">
         <v>14.96</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="7">
         <v>0.12</v>
       </c>
@@ -6322,13 +6865,32 @@
       <c r="G10" s="8">
         <v>15.03</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L10" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="157">
+        <f>M7*M10/(M8+M9+M10)</f>
+        <v>1.8703241895261846</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" s="77" t="s">
         <v>63</v>
       </c>
@@ -6563,7 +7125,7 @@
   <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6599,25 +7161,25 @@
       <c r="C4" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="129">
         <v>10</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="128">
         <v>50</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="128">
         <v>100</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="128">
         <v>150</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="127">
         <v>200</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="127">
         <v>250</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="127">
         <v>300</v>
       </c>
       <c r="K4" s="109" t="s">
@@ -7362,90 +7924,2622 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:K10"/>
+  <dimension ref="B2:T50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="118"/>
+      <c r="F7" s="15">
+        <v>-20</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
+        <v>20</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="119" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="K5" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>4.625</v>
+      </c>
+      <c r="I8" s="110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="120"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="122"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
+        <v>104.2</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="114"/>
+      <c r="E13" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="15">
+        <v>50</v>
+      </c>
+      <c r="F14" s="15">
+        <v>100</v>
+      </c>
+      <c r="G14" s="109" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="124">
+        <f>(1/(2*3.14*E14*E15*1000))*10^9</f>
+        <v>70.771408351026182</v>
+      </c>
+      <c r="F16" s="124">
+        <f>(1/(2*3.14*F14*F15*1000))*10^9</f>
+        <v>7.9617834394904454</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="125" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="126">
+        <v>82</v>
+      </c>
+      <c r="F17" s="126">
+        <v>10</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="132" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" s="132" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>30</v>
+      </c>
+      <c r="S20" s="160">
+        <v>40</v>
+      </c>
+      <c r="T20" s="160">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="134">
+        <v>10</v>
+      </c>
+      <c r="E21" s="149">
+        <f>750/D21</f>
+        <v>75</v>
+      </c>
+      <c r="F21" s="135">
+        <f>H21/150</f>
+        <v>375</v>
+      </c>
+      <c r="G21" s="135">
+        <f>F21*0.2</f>
+        <v>75</v>
+      </c>
+      <c r="H21" s="136">
+        <f>E21*750</f>
+        <v>56250</v>
+      </c>
+      <c r="I21" s="135">
+        <f>H21*0.2</f>
+        <v>11250</v>
+      </c>
+      <c r="J21" s="137">
+        <f>2.5+E21*0.1042</f>
+        <v>10.315000000000001</v>
+      </c>
+      <c r="K21" s="153">
+        <f>255*(J21/3.3)</f>
+        <v>797.06818181818198</v>
+      </c>
+      <c r="M21" s="134">
+        <v>10</v>
+      </c>
+      <c r="N21" s="149">
+        <f>750/M21</f>
+        <v>75</v>
+      </c>
+      <c r="O21" s="135">
+        <f>(N21*750)*0.2</f>
+        <v>11250</v>
+      </c>
+      <c r="P21" s="167">
+        <f>$O21*P$20/100</f>
+        <v>1125</v>
+      </c>
+      <c r="Q21" s="167">
+        <f>$O21*Q$20/100</f>
+        <v>2250</v>
+      </c>
+      <c r="R21" s="167">
+        <f t="shared" ref="R21:T36" si="0">$O21*R$20/100</f>
+        <v>3375</v>
+      </c>
+      <c r="S21" s="167">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="T21" s="167">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="138">
+        <v>20</v>
+      </c>
+      <c r="E22" s="150">
+        <f t="shared" ref="E22:E50" si="1">750/D22</f>
+        <v>37.5</v>
+      </c>
+      <c r="F22" s="139">
+        <f>H22/150</f>
+        <v>187.5</v>
+      </c>
+      <c r="G22" s="139">
+        <f t="shared" ref="G22:G50" si="2">F22*0.2</f>
+        <v>37.5</v>
+      </c>
+      <c r="H22" s="140">
+        <f>E22*750</f>
+        <v>28125</v>
+      </c>
+      <c r="I22" s="139">
+        <f t="shared" ref="I22:I50" si="3">H22*0.2</f>
+        <v>5625</v>
+      </c>
+      <c r="J22" s="141">
+        <f>2.5+E22*0.1042</f>
+        <v>6.4075000000000006</v>
+      </c>
+      <c r="K22" s="154">
+        <f t="shared" ref="K22:K50" si="4">255*(J22/3.3)</f>
+        <v>495.12500000000006</v>
+      </c>
+      <c r="M22" s="138">
+        <v>20</v>
+      </c>
+      <c r="N22" s="150">
+        <f t="shared" ref="N22:N50" si="5">750/M22</f>
+        <v>37.5</v>
+      </c>
+      <c r="O22" s="135">
+        <f t="shared" ref="O22:O50" si="6">(N22*750)*0.2</f>
+        <v>5625</v>
+      </c>
+      <c r="P22" s="167">
+        <f t="shared" ref="P22:T50" si="7">$O22*P$20/100</f>
+        <v>562.5</v>
+      </c>
+      <c r="Q22" s="167">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="R22" s="167">
+        <f t="shared" si="0"/>
+        <v>1687.5</v>
+      </c>
+      <c r="S22" s="167">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="T22" s="167">
+        <f t="shared" si="0"/>
+        <v>2812.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="138">
+        <v>30</v>
+      </c>
+      <c r="E23" s="150">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="139">
+        <f>H23/150</f>
+        <v>125</v>
+      </c>
+      <c r="G23" s="139">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H23" s="140">
+        <f>E23*750</f>
+        <v>18750</v>
+      </c>
+      <c r="I23" s="139">
+        <f t="shared" si="3"/>
+        <v>3750</v>
+      </c>
+      <c r="J23" s="141">
+        <f>2.5+E23*0.1042</f>
+        <v>5.1050000000000004</v>
+      </c>
+      <c r="K23" s="154">
+        <f t="shared" si="4"/>
+        <v>394.47727272727275</v>
+      </c>
+      <c r="M23" s="138">
+        <v>30</v>
+      </c>
+      <c r="N23" s="150">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="O23" s="135">
+        <f t="shared" si="6"/>
+        <v>3750</v>
+      </c>
+      <c r="P23" s="167">
+        <f t="shared" si="7"/>
+        <v>375</v>
+      </c>
+      <c r="Q23" s="167">
+        <f t="shared" si="7"/>
+        <v>750</v>
+      </c>
+      <c r="R23" s="167">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="S23" s="167">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="T23" s="167">
+        <f t="shared" si="0"/>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="138">
+        <v>40</v>
+      </c>
+      <c r="E24" s="150">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+      <c r="F24" s="142">
+        <f>H24/150</f>
+        <v>93.75</v>
+      </c>
+      <c r="G24" s="139">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="H24" s="140">
+        <f>E24*750</f>
+        <v>14062.5</v>
+      </c>
+      <c r="I24" s="139">
+        <f t="shared" si="3"/>
+        <v>2812.5</v>
+      </c>
+      <c r="J24" s="145">
+        <f>2.5+E24*0.1042</f>
+        <v>4.4537500000000003</v>
+      </c>
+      <c r="K24" s="154">
+        <f t="shared" si="4"/>
+        <v>344.15340909090912</v>
+      </c>
+      <c r="M24" s="138">
+        <v>40</v>
+      </c>
+      <c r="N24" s="150">
+        <f t="shared" si="5"/>
+        <v>18.75</v>
+      </c>
+      <c r="O24" s="135">
+        <f t="shared" si="6"/>
+        <v>2812.5</v>
+      </c>
+      <c r="P24" s="167">
+        <f t="shared" si="7"/>
+        <v>281.25</v>
+      </c>
+      <c r="Q24" s="167">
+        <f t="shared" si="7"/>
+        <v>562.5</v>
+      </c>
+      <c r="R24" s="167">
+        <f t="shared" si="0"/>
+        <v>843.75</v>
+      </c>
+      <c r="S24" s="167">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="T24" s="167">
+        <f t="shared" si="0"/>
+        <v>1406.25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="138">
+        <v>50</v>
+      </c>
+      <c r="E25" s="150">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="142">
+        <f>H25/150</f>
+        <v>75</v>
+      </c>
+      <c r="G25" s="139">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H25" s="140">
+        <f>E25*750</f>
+        <v>11250</v>
+      </c>
+      <c r="I25" s="139">
+        <f t="shared" si="3"/>
+        <v>2250</v>
+      </c>
+      <c r="J25" s="145">
+        <f>2.5+E25*0.1042</f>
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="K25" s="154">
+        <f t="shared" si="4"/>
+        <v>313.95909090909089</v>
+      </c>
+      <c r="M25" s="138">
+        <v>50</v>
+      </c>
+      <c r="N25" s="150">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O25" s="135">
+        <f t="shared" si="6"/>
+        <v>2250</v>
+      </c>
+      <c r="P25" s="167">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="Q25" s="167">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="R25" s="167">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="S25" s="167">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="T25" s="167">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="138">
+        <v>60</v>
+      </c>
+      <c r="E26" s="150">
+        <f>750/D26</f>
+        <v>12.5</v>
+      </c>
+      <c r="F26" s="142">
+        <f>H26/150</f>
+        <v>62.5</v>
+      </c>
+      <c r="G26" s="139">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="H26" s="140">
+        <f>E26*750</f>
+        <v>9375</v>
+      </c>
+      <c r="I26" s="139">
+        <f t="shared" si="3"/>
+        <v>1875</v>
+      </c>
+      <c r="J26" s="145">
+        <f>2.5+E26*0.1042</f>
+        <v>3.8025000000000002</v>
+      </c>
+      <c r="K26" s="154">
+        <f t="shared" si="4"/>
+        <v>293.8295454545455</v>
+      </c>
+      <c r="M26" s="138">
+        <v>60</v>
+      </c>
+      <c r="N26" s="150">
+        <f>750/M26</f>
+        <v>12.5</v>
+      </c>
+      <c r="O26" s="135">
+        <f t="shared" si="6"/>
+        <v>1875</v>
+      </c>
+      <c r="P26" s="167">
+        <f t="shared" si="7"/>
+        <v>187.5</v>
+      </c>
+      <c r="Q26" s="167">
+        <f t="shared" si="7"/>
+        <v>375</v>
+      </c>
+      <c r="R26" s="167">
+        <f t="shared" si="0"/>
+        <v>562.5</v>
+      </c>
+      <c r="S26" s="167">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="T26" s="167">
+        <f t="shared" si="0"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="138">
+        <v>70</v>
+      </c>
+      <c r="E27" s="150">
+        <f t="shared" si="1"/>
+        <v>10.714285714285714</v>
+      </c>
+      <c r="F27" s="142">
+        <f>H27/150</f>
+        <v>53.571428571428569</v>
+      </c>
+      <c r="G27" s="139">
+        <f t="shared" si="2"/>
+        <v>10.714285714285715</v>
+      </c>
+      <c r="H27" s="140">
+        <f>E27*750</f>
+        <v>8035.7142857142853</v>
+      </c>
+      <c r="I27" s="139">
+        <f t="shared" si="3"/>
+        <v>1607.1428571428571</v>
+      </c>
+      <c r="J27" s="145">
+        <f>2.5+E27*0.1042</f>
+        <v>3.6164285714285711</v>
+      </c>
+      <c r="K27" s="154">
+        <f t="shared" si="4"/>
+        <v>279.4512987012987</v>
+      </c>
+      <c r="M27" s="138">
+        <v>70</v>
+      </c>
+      <c r="N27" s="150">
+        <f t="shared" si="5"/>
+        <v>10.714285714285714</v>
+      </c>
+      <c r="O27" s="135">
+        <f t="shared" si="6"/>
+        <v>1607.1428571428571</v>
+      </c>
+      <c r="P27" s="167">
+        <f t="shared" si="7"/>
+        <v>160.71428571428569</v>
+      </c>
+      <c r="Q27" s="167">
+        <f t="shared" si="7"/>
+        <v>321.42857142857139</v>
+      </c>
+      <c r="R27" s="167">
+        <f t="shared" si="0"/>
+        <v>482.14285714285711</v>
+      </c>
+      <c r="S27" s="167">
+        <f t="shared" si="0"/>
+        <v>642.85714285714278</v>
+      </c>
+      <c r="T27" s="167">
+        <f t="shared" si="0"/>
+        <v>803.57142857142856</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="138">
+        <v>80</v>
+      </c>
+      <c r="E28" s="150">
+        <f t="shared" si="1"/>
+        <v>9.375</v>
+      </c>
+      <c r="F28" s="142">
+        <f>H28/150</f>
+        <v>46.875</v>
+      </c>
+      <c r="G28" s="139">
+        <f t="shared" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="H28" s="140">
+        <f>E28*750</f>
+        <v>7031.25</v>
+      </c>
+      <c r="I28" s="139">
+        <f t="shared" si="3"/>
+        <v>1406.25</v>
+      </c>
+      <c r="J28" s="145">
+        <f>2.5+E28*0.1042</f>
+        <v>3.4768750000000002</v>
+      </c>
+      <c r="K28" s="154">
+        <f t="shared" si="4"/>
+        <v>268.66761363636368</v>
+      </c>
+      <c r="M28" s="138">
+        <v>80</v>
+      </c>
+      <c r="N28" s="150">
+        <f t="shared" si="5"/>
+        <v>9.375</v>
+      </c>
+      <c r="O28" s="135">
+        <f t="shared" si="6"/>
+        <v>1406.25</v>
+      </c>
+      <c r="P28" s="167">
+        <f t="shared" si="7"/>
+        <v>140.625</v>
+      </c>
+      <c r="Q28" s="167">
+        <f t="shared" si="7"/>
+        <v>281.25</v>
+      </c>
+      <c r="R28" s="167">
+        <f t="shared" si="0"/>
+        <v>421.875</v>
+      </c>
+      <c r="S28" s="167">
+        <f t="shared" si="0"/>
+        <v>562.5</v>
+      </c>
+      <c r="T28" s="167">
+        <f t="shared" si="0"/>
+        <v>703.125</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="138">
+        <v>90</v>
+      </c>
+      <c r="E29" s="150">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F29" s="142">
+        <f>H29/150</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="G29" s="139">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H29" s="140">
+        <f>E29*750</f>
+        <v>6250</v>
+      </c>
+      <c r="I29" s="139">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
+      <c r="J29" s="145">
+        <f>2.5+E29*0.1042</f>
+        <v>3.3683333333333332</v>
+      </c>
+      <c r="K29" s="154">
+        <f t="shared" si="4"/>
+        <v>260.280303030303</v>
+      </c>
+      <c r="M29" s="138">
+        <v>90</v>
+      </c>
+      <c r="N29" s="150">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="O29" s="135">
+        <f t="shared" si="6"/>
+        <v>1250</v>
+      </c>
+      <c r="P29" s="167">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q29" s="167">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="R29" s="167">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="S29" s="167">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="T29" s="167">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="143">
+        <v>100</v>
+      </c>
+      <c r="E30" s="151">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="F30" s="142">
+        <f>H30/150</f>
+        <v>37.5</v>
+      </c>
+      <c r="G30" s="139">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="H30" s="144">
+        <f>E30*750</f>
+        <v>5625</v>
+      </c>
+      <c r="I30" s="142">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+      <c r="J30" s="145">
+        <f>2.5+E30*0.1042</f>
+        <v>3.2814999999999999</v>
+      </c>
+      <c r="K30" s="155">
+        <f t="shared" si="4"/>
+        <v>253.57045454545454</v>
+      </c>
+      <c r="M30" s="143">
+        <v>100</v>
+      </c>
+      <c r="N30" s="151">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="O30" s="135">
+        <f t="shared" si="6"/>
+        <v>1125</v>
+      </c>
+      <c r="P30" s="167">
+        <f t="shared" si="7"/>
+        <v>112.5</v>
+      </c>
+      <c r="Q30" s="167">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="R30" s="167">
+        <f t="shared" si="0"/>
+        <v>337.5</v>
+      </c>
+      <c r="S30" s="167">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="T30" s="167">
+        <f t="shared" si="0"/>
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="143">
+        <v>110</v>
+      </c>
+      <c r="E31" s="151">
+        <f t="shared" si="1"/>
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="F31" s="142">
+        <f>H31/150</f>
+        <v>34.090909090909093</v>
+      </c>
+      <c r="G31" s="139">
+        <f t="shared" si="2"/>
+        <v>6.8181818181818192</v>
+      </c>
+      <c r="H31" s="144">
+        <f>E31*750</f>
+        <v>5113.636363636364</v>
+      </c>
+      <c r="I31" s="142">
+        <f t="shared" si="3"/>
+        <v>1022.7272727272729</v>
+      </c>
+      <c r="J31" s="145">
+        <f>2.5+E31*0.1042</f>
+        <v>3.2104545454545454</v>
+      </c>
+      <c r="K31" s="155">
+        <f t="shared" si="4"/>
+        <v>248.0805785123967</v>
+      </c>
+      <c r="M31" s="143">
+        <v>110</v>
+      </c>
+      <c r="N31" s="151">
+        <f t="shared" si="5"/>
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="O31" s="135">
+        <f t="shared" si="6"/>
+        <v>1022.7272727272729</v>
+      </c>
+      <c r="P31" s="167">
+        <f t="shared" si="7"/>
+        <v>102.27272727272728</v>
+      </c>
+      <c r="Q31" s="167">
+        <f t="shared" si="7"/>
+        <v>204.54545454545456</v>
+      </c>
+      <c r="R31" s="167">
+        <f t="shared" si="0"/>
+        <v>306.81818181818187</v>
+      </c>
+      <c r="S31" s="167">
+        <f t="shared" si="0"/>
+        <v>409.09090909090912</v>
+      </c>
+      <c r="T31" s="167">
+        <f t="shared" si="0"/>
+        <v>511.36363636363637</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="143">
+        <v>120</v>
+      </c>
+      <c r="E32" s="151">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="F32" s="142">
+        <f>H32/150</f>
+        <v>31.25</v>
+      </c>
+      <c r="G32" s="139">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+      <c r="H32" s="144">
+        <f>E32*750</f>
+        <v>4687.5</v>
+      </c>
+      <c r="I32" s="142">
+        <f t="shared" si="3"/>
+        <v>937.5</v>
+      </c>
+      <c r="J32" s="145">
+        <f>2.5+E32*0.1042</f>
+        <v>3.1512500000000001</v>
+      </c>
+      <c r="K32" s="155">
+        <f t="shared" si="4"/>
+        <v>243.50568181818181</v>
+      </c>
+      <c r="M32" s="143">
+        <v>120</v>
+      </c>
+      <c r="N32" s="151">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="O32" s="135">
+        <f t="shared" si="6"/>
+        <v>937.5</v>
+      </c>
+      <c r="P32" s="167">
+        <f t="shared" si="7"/>
+        <v>93.75</v>
+      </c>
+      <c r="Q32" s="167">
+        <f t="shared" si="7"/>
+        <v>187.5</v>
+      </c>
+      <c r="R32" s="167">
+        <f t="shared" si="0"/>
+        <v>281.25</v>
+      </c>
+      <c r="S32" s="167">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="T32" s="167">
+        <f t="shared" si="0"/>
+        <v>468.75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="143">
+        <v>130</v>
+      </c>
+      <c r="E33" s="151">
+        <f t="shared" si="1"/>
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="F33" s="142">
+        <f>H33/150</f>
+        <v>28.846153846153847</v>
+      </c>
+      <c r="G33" s="139">
+        <f t="shared" si="2"/>
+        <v>5.7692307692307701</v>
+      </c>
+      <c r="H33" s="144">
+        <f>E33*750</f>
+        <v>4326.9230769230771</v>
+      </c>
+      <c r="I33" s="142">
+        <f t="shared" si="3"/>
+        <v>865.38461538461547</v>
+      </c>
+      <c r="J33" s="145">
+        <f>2.5+E33*0.1042</f>
+        <v>3.1011538461538461</v>
+      </c>
+      <c r="K33" s="155">
+        <f t="shared" si="4"/>
+        <v>239.63461538461542</v>
+      </c>
+      <c r="M33" s="143">
+        <v>130</v>
+      </c>
+      <c r="N33" s="151">
+        <f t="shared" si="5"/>
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="O33" s="135">
+        <f t="shared" si="6"/>
+        <v>865.38461538461547</v>
+      </c>
+      <c r="P33" s="167">
+        <f t="shared" si="7"/>
+        <v>86.538461538461547</v>
+      </c>
+      <c r="Q33" s="167">
+        <f t="shared" si="7"/>
+        <v>173.07692307692309</v>
+      </c>
+      <c r="R33" s="167">
+        <f t="shared" si="0"/>
+        <v>259.61538461538464</v>
+      </c>
+      <c r="S33" s="167">
+        <f t="shared" si="0"/>
+        <v>346.15384615384619</v>
+      </c>
+      <c r="T33" s="167">
+        <f t="shared" si="0"/>
+        <v>432.69230769230774</v>
+      </c>
+    </row>
+    <row r="34" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="143">
+        <v>140</v>
+      </c>
+      <c r="E34" s="151">
+        <f t="shared" si="1"/>
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="F34" s="142">
+        <f>H34/150</f>
+        <v>26.785714285714285</v>
+      </c>
+      <c r="G34" s="139">
+        <f t="shared" si="2"/>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="H34" s="144">
+        <f>E34*750</f>
+        <v>4017.8571428571427</v>
+      </c>
+      <c r="I34" s="142">
+        <f t="shared" si="3"/>
+        <v>803.57142857142856</v>
+      </c>
+      <c r="J34" s="145">
+        <f>2.5+E34*0.1042</f>
+        <v>3.0582142857142856</v>
+      </c>
+      <c r="K34" s="155">
+        <f t="shared" si="4"/>
+        <v>236.31655844155844</v>
+      </c>
+      <c r="M34" s="143">
+        <v>140</v>
+      </c>
+      <c r="N34" s="151">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="O34" s="135">
+        <f t="shared" si="6"/>
+        <v>803.57142857142856</v>
+      </c>
+      <c r="P34" s="167">
+        <f t="shared" si="7"/>
+        <v>80.357142857142847</v>
+      </c>
+      <c r="Q34" s="167">
+        <f t="shared" si="7"/>
+        <v>160.71428571428569</v>
+      </c>
+      <c r="R34" s="167">
+        <f t="shared" si="0"/>
+        <v>241.07142857142856</v>
+      </c>
+      <c r="S34" s="167">
+        <f t="shared" si="0"/>
+        <v>321.42857142857139</v>
+      </c>
+      <c r="T34" s="167">
+        <f t="shared" si="0"/>
+        <v>401.78571428571428</v>
+      </c>
+    </row>
+    <row r="35" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="143">
+        <v>150</v>
+      </c>
+      <c r="E35" s="151">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F35" s="142">
+        <f>H35/150</f>
+        <v>25</v>
+      </c>
+      <c r="G35" s="142">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H35" s="144">
+        <f>E35*750</f>
+        <v>3750</v>
+      </c>
+      <c r="I35" s="142">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="J35" s="145">
+        <f>2.5+E35*0.1042</f>
+        <v>3.0209999999999999</v>
+      </c>
+      <c r="K35" s="155">
+        <f t="shared" si="4"/>
+        <v>233.44090909090912</v>
+      </c>
+      <c r="M35" s="143">
+        <v>150</v>
+      </c>
+      <c r="N35" s="151">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O35" s="135">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="P35" s="167">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="Q35" s="167">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="R35" s="167">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="S35" s="167">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="T35" s="167">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="143">
+        <v>160</v>
+      </c>
+      <c r="E36" s="151">
+        <f t="shared" si="1"/>
+        <v>4.6875</v>
+      </c>
+      <c r="F36" s="142">
+        <f>H36/150</f>
+        <v>23.4375</v>
+      </c>
+      <c r="G36" s="142">
+        <f t="shared" si="2"/>
+        <v>4.6875</v>
+      </c>
+      <c r="H36" s="144">
+        <f>E36*750</f>
+        <v>3515.625</v>
+      </c>
+      <c r="I36" s="142">
+        <f t="shared" si="3"/>
+        <v>703.125</v>
+      </c>
+      <c r="J36" s="145">
+        <f>2.5+E36*0.1042</f>
+        <v>2.9884374999999999</v>
+      </c>
+      <c r="K36" s="155">
+        <f t="shared" si="4"/>
+        <v>230.92471590909093</v>
+      </c>
+      <c r="M36" s="143">
+        <v>160</v>
+      </c>
+      <c r="N36" s="151">
+        <f t="shared" si="5"/>
+        <v>4.6875</v>
+      </c>
+      <c r="O36" s="135">
+        <f t="shared" si="6"/>
+        <v>703.125</v>
+      </c>
+      <c r="P36" s="167">
+        <f t="shared" si="7"/>
+        <v>70.3125</v>
+      </c>
+      <c r="Q36" s="167">
+        <f t="shared" si="7"/>
+        <v>140.625</v>
+      </c>
+      <c r="R36" s="167">
+        <f t="shared" si="0"/>
+        <v>210.9375</v>
+      </c>
+      <c r="S36" s="167">
+        <f t="shared" si="0"/>
+        <v>281.25</v>
+      </c>
+      <c r="T36" s="167">
+        <f t="shared" si="0"/>
+        <v>351.5625</v>
+      </c>
+    </row>
+    <row r="37" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="143">
+        <v>170</v>
+      </c>
+      <c r="E37" s="151">
+        <f t="shared" si="1"/>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="F37" s="142">
+        <f>H37/150</f>
+        <v>22.058823529411764</v>
+      </c>
+      <c r="G37" s="142">
+        <f t="shared" si="2"/>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="H37" s="144">
+        <f>E37*750</f>
+        <v>3308.8235294117649</v>
+      </c>
+      <c r="I37" s="142">
+        <f t="shared" si="3"/>
+        <v>661.76470588235304</v>
+      </c>
+      <c r="J37" s="145">
+        <f>2.5+E37*0.1042</f>
+        <v>2.9597058823529414</v>
+      </c>
+      <c r="K37" s="155">
+        <f t="shared" si="4"/>
+        <v>228.70454545454547</v>
+      </c>
+      <c r="M37" s="143">
+        <v>170</v>
+      </c>
+      <c r="N37" s="151">
+        <f t="shared" si="5"/>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="O37" s="135">
+        <f t="shared" si="6"/>
+        <v>661.76470588235304</v>
+      </c>
+      <c r="P37" s="167">
+        <f t="shared" si="7"/>
+        <v>66.176470588235304</v>
+      </c>
+      <c r="Q37" s="167">
+        <f t="shared" si="7"/>
+        <v>132.35294117647061</v>
+      </c>
+      <c r="R37" s="167">
+        <f t="shared" si="7"/>
+        <v>198.52941176470591</v>
+      </c>
+      <c r="S37" s="167">
+        <f t="shared" si="7"/>
+        <v>264.70588235294122</v>
+      </c>
+      <c r="T37" s="167">
+        <f t="shared" si="7"/>
+        <v>330.88235294117652</v>
+      </c>
+    </row>
+    <row r="38" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="143">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7">
-        <v>-20</v>
-      </c>
-      <c r="G7">
+      <c r="E38" s="151">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F38" s="142">
+        <f>H38/150</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="G38" s="142">
+        <f t="shared" si="2"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H38" s="144">
+        <f>E38*750</f>
+        <v>3125</v>
+      </c>
+      <c r="I38" s="142">
+        <f t="shared" si="3"/>
+        <v>625</v>
+      </c>
+      <c r="J38" s="145">
+        <f>2.5+E38*0.1042</f>
+        <v>2.9341666666666666</v>
+      </c>
+      <c r="K38" s="155">
+        <f t="shared" si="4"/>
+        <v>226.73106060606059</v>
+      </c>
+      <c r="M38" s="143">
+        <v>180</v>
+      </c>
+      <c r="N38" s="151">
+        <f t="shared" si="5"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="O38" s="135">
+        <f t="shared" si="6"/>
+        <v>625</v>
+      </c>
+      <c r="P38" s="167">
+        <f t="shared" si="7"/>
+        <v>62.5</v>
+      </c>
+      <c r="Q38" s="167">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="R38" s="167">
+        <f t="shared" si="7"/>
+        <v>187.5</v>
+      </c>
+      <c r="S38" s="167">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="T38" s="167">
+        <f t="shared" si="7"/>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="143">
+        <v>190</v>
+      </c>
+      <c r="E39" s="151">
+        <f t="shared" si="1"/>
+        <v>3.9473684210526314</v>
+      </c>
+      <c r="F39" s="142">
+        <f>H39/150</f>
+        <v>19.736842105263158</v>
+      </c>
+      <c r="G39" s="142">
+        <f t="shared" si="2"/>
+        <v>3.9473684210526319</v>
+      </c>
+      <c r="H39" s="144">
+        <f>E39*750</f>
+        <v>2960.5263157894738</v>
+      </c>
+      <c r="I39" s="142">
+        <f t="shared" si="3"/>
+        <v>592.1052631578948</v>
+      </c>
+      <c r="J39" s="145">
+        <f>2.5+E39*0.1042</f>
+        <v>2.9113157894736843</v>
+      </c>
+      <c r="K39" s="155">
+        <f t="shared" si="4"/>
+        <v>224.9653110047847</v>
+      </c>
+      <c r="M39" s="143">
+        <v>190</v>
+      </c>
+      <c r="N39" s="151">
+        <f t="shared" si="5"/>
+        <v>3.9473684210526314</v>
+      </c>
+      <c r="O39" s="135">
+        <f t="shared" si="6"/>
+        <v>592.1052631578948</v>
+      </c>
+      <c r="P39" s="167">
+        <f t="shared" si="7"/>
+        <v>59.210526315789487</v>
+      </c>
+      <c r="Q39" s="167">
+        <f t="shared" si="7"/>
+        <v>118.42105263157897</v>
+      </c>
+      <c r="R39" s="167">
+        <f t="shared" si="7"/>
+        <v>177.63157894736844</v>
+      </c>
+      <c r="S39" s="167">
+        <f t="shared" si="7"/>
+        <v>236.84210526315795</v>
+      </c>
+      <c r="T39" s="167">
+        <f t="shared" si="7"/>
+        <v>296.0526315789474</v>
+      </c>
+    </row>
+    <row r="40" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="143">
+        <v>200</v>
+      </c>
+      <c r="E40" s="151">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="F40" s="142">
+        <f>H40/150</f>
+        <v>18.75</v>
+      </c>
+      <c r="G40" s="142">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="H40" s="144">
+        <f>E40*750</f>
+        <v>2812.5</v>
+      </c>
+      <c r="I40" s="142">
+        <f t="shared" si="3"/>
+        <v>562.5</v>
+      </c>
+      <c r="J40" s="145">
+        <f>2.5+E40*0.1042</f>
+        <v>2.8907500000000002</v>
+      </c>
+      <c r="K40" s="155">
+        <f t="shared" si="4"/>
+        <v>223.37613636363639</v>
+      </c>
+      <c r="M40" s="143">
+        <v>200</v>
+      </c>
+      <c r="N40" s="151">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="O40" s="135">
+        <f t="shared" si="6"/>
+        <v>562.5</v>
+      </c>
+      <c r="P40" s="167">
+        <f t="shared" si="7"/>
+        <v>56.25</v>
+      </c>
+      <c r="Q40" s="167">
+        <f t="shared" si="7"/>
+        <v>112.5</v>
+      </c>
+      <c r="R40" s="167">
+        <f t="shared" si="7"/>
+        <v>168.75</v>
+      </c>
+      <c r="S40" s="167">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="T40" s="167">
+        <f t="shared" si="7"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="41" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="143">
+        <v>210</v>
+      </c>
+      <c r="E41" s="151">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="F41" s="142">
+        <f>H41/150</f>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="G41" s="142">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="H41" s="144">
+        <f>E41*750</f>
+        <v>2678.5714285714289</v>
+      </c>
+      <c r="I41" s="142">
+        <f t="shared" si="3"/>
+        <v>535.71428571428578</v>
+      </c>
+      <c r="J41" s="145">
+        <f>2.5+E41*0.1042</f>
+        <v>2.8721428571428573</v>
+      </c>
+      <c r="K41" s="155">
+        <f t="shared" si="4"/>
+        <v>221.9383116883117</v>
+      </c>
+      <c r="M41" s="143">
+        <v>210</v>
+      </c>
+      <c r="N41" s="151">
+        <f t="shared" si="5"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="O41" s="135">
+        <f t="shared" si="6"/>
+        <v>535.71428571428578</v>
+      </c>
+      <c r="P41" s="167">
+        <f t="shared" si="7"/>
+        <v>53.571428571428577</v>
+      </c>
+      <c r="Q41" s="167">
+        <f t="shared" si="7"/>
+        <v>107.14285714285715</v>
+      </c>
+      <c r="R41" s="167">
+        <f t="shared" si="7"/>
+        <v>160.71428571428572</v>
+      </c>
+      <c r="S41" s="167">
+        <f t="shared" si="7"/>
+        <v>214.28571428571431</v>
+      </c>
+      <c r="T41" s="167">
+        <f t="shared" si="7"/>
+        <v>267.85714285714289</v>
+      </c>
+    </row>
+    <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="143">
+        <v>220</v>
+      </c>
+      <c r="E42" s="151">
+        <f t="shared" si="1"/>
+        <v>3.4090909090909092</v>
+      </c>
+      <c r="F42" s="142">
+        <f>H42/150</f>
+        <v>17.045454545454547</v>
+      </c>
+      <c r="G42" s="142">
+        <f t="shared" si="2"/>
+        <v>3.4090909090909096</v>
+      </c>
+      <c r="H42" s="144">
+        <f>E42*750</f>
+        <v>2556.818181818182</v>
+      </c>
+      <c r="I42" s="142">
+        <f t="shared" si="3"/>
+        <v>511.36363636363643</v>
+      </c>
+      <c r="J42" s="145">
+        <f>2.5+E42*0.1042</f>
+        <v>2.8552272727272729</v>
+      </c>
+      <c r="K42" s="155">
+        <f t="shared" si="4"/>
+        <v>220.63119834710744</v>
+      </c>
+      <c r="M42" s="143">
+        <v>220</v>
+      </c>
+      <c r="N42" s="151">
+        <f t="shared" si="5"/>
+        <v>3.4090909090909092</v>
+      </c>
+      <c r="O42" s="135">
+        <f t="shared" si="6"/>
+        <v>511.36363636363643</v>
+      </c>
+      <c r="P42" s="167">
+        <f t="shared" si="7"/>
+        <v>51.13636363636364</v>
+      </c>
+      <c r="Q42" s="167">
+        <f t="shared" si="7"/>
+        <v>102.27272727272728</v>
+      </c>
+      <c r="R42" s="167">
+        <f t="shared" si="7"/>
+        <v>153.40909090909093</v>
+      </c>
+      <c r="S42" s="167">
+        <f t="shared" si="7"/>
+        <v>204.54545454545456</v>
+      </c>
+      <c r="T42" s="167">
+        <f t="shared" si="7"/>
+        <v>255.68181818181819</v>
+      </c>
+    </row>
+    <row r="43" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="143">
+        <v>230</v>
+      </c>
+      <c r="E43" s="151">
+        <f t="shared" si="1"/>
+        <v>3.2608695652173911</v>
+      </c>
+      <c r="F43" s="142">
+        <f>H43/150</f>
+        <v>16.304347826086957</v>
+      </c>
+      <c r="G43" s="142">
+        <f t="shared" si="2"/>
+        <v>3.2608695652173916</v>
+      </c>
+      <c r="H43" s="144">
+        <f>E43*750</f>
+        <v>2445.6521739130435</v>
+      </c>
+      <c r="I43" s="142">
+        <f t="shared" si="3"/>
+        <v>489.13043478260875</v>
+      </c>
+      <c r="J43" s="145">
+        <f>2.5+E43*0.1042</f>
+        <v>2.8397826086956521</v>
+      </c>
+      <c r="K43" s="155">
+        <f t="shared" si="4"/>
+        <v>219.43774703557315</v>
+      </c>
+      <c r="M43" s="143">
+        <v>230</v>
+      </c>
+      <c r="N43" s="151">
+        <f t="shared" si="5"/>
+        <v>3.2608695652173911</v>
+      </c>
+      <c r="O43" s="135">
+        <f t="shared" si="6"/>
+        <v>489.13043478260875</v>
+      </c>
+      <c r="P43" s="167">
+        <f t="shared" si="7"/>
+        <v>48.913043478260882</v>
+      </c>
+      <c r="Q43" s="167">
+        <f t="shared" si="7"/>
+        <v>97.826086956521763</v>
+      </c>
+      <c r="R43" s="167">
+        <f t="shared" si="7"/>
+        <v>146.73913043478262</v>
+      </c>
+      <c r="S43" s="167">
+        <f t="shared" si="7"/>
+        <v>195.65217391304353</v>
+      </c>
+      <c r="T43" s="167">
+        <f t="shared" si="7"/>
+        <v>244.56521739130437</v>
+      </c>
+    </row>
+    <row r="44" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="143">
+        <v>240</v>
+      </c>
+      <c r="E44" s="151">
+        <f t="shared" si="1"/>
+        <v>3.125</v>
+      </c>
+      <c r="F44" s="142">
+        <f>H44/150</f>
+        <v>15.625</v>
+      </c>
+      <c r="G44" s="142">
+        <f t="shared" si="2"/>
+        <v>3.125</v>
+      </c>
+      <c r="H44" s="144">
+        <f>E44*750</f>
+        <v>2343.75</v>
+      </c>
+      <c r="I44" s="142">
+        <f t="shared" si="3"/>
+        <v>468.75</v>
+      </c>
+      <c r="J44" s="145">
+        <f>2.5+E44*0.1042</f>
+        <v>2.8256250000000001</v>
+      </c>
+      <c r="K44" s="155">
+        <f t="shared" si="4"/>
+        <v>218.34375000000003</v>
+      </c>
+      <c r="M44" s="143">
+        <v>240</v>
+      </c>
+      <c r="N44" s="151">
+        <f t="shared" si="5"/>
+        <v>3.125</v>
+      </c>
+      <c r="O44" s="135">
+        <f t="shared" si="6"/>
+        <v>468.75</v>
+      </c>
+      <c r="P44" s="167">
+        <f t="shared" si="7"/>
+        <v>46.875</v>
+      </c>
+      <c r="Q44" s="167">
+        <f t="shared" si="7"/>
+        <v>93.75</v>
+      </c>
+      <c r="R44" s="167">
+        <f t="shared" si="7"/>
+        <v>140.625</v>
+      </c>
+      <c r="S44" s="167">
+        <f t="shared" si="7"/>
+        <v>187.5</v>
+      </c>
+      <c r="T44" s="167">
+        <f t="shared" si="7"/>
+        <v>234.375</v>
+      </c>
+    </row>
+    <row r="45" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="143">
+        <v>250</v>
+      </c>
+      <c r="E45" s="151">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F45" s="142">
+        <f>H45/150</f>
+        <v>15</v>
+      </c>
+      <c r="G45" s="142">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H45" s="144">
+        <f>E45*750</f>
+        <v>2250</v>
+      </c>
+      <c r="I45" s="142">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="J45" s="145">
+        <f>2.5+E45*0.1042</f>
+        <v>2.8125999999999998</v>
+      </c>
+      <c r="K45" s="155">
+        <f t="shared" si="4"/>
+        <v>217.3372727272727</v>
+      </c>
+      <c r="M45" s="143">
+        <v>250</v>
+      </c>
+      <c r="N45" s="151">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O45" s="135">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="P45" s="167">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="Q45" s="167">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="R45" s="167">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="S45" s="167">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="T45" s="167">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="143">
+        <v>260</v>
+      </c>
+      <c r="E46" s="151">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="F46" s="142">
+        <f>H46/150</f>
+        <v>14.423076923076923</v>
+      </c>
+      <c r="G46" s="142">
+        <f t="shared" si="2"/>
+        <v>2.884615384615385</v>
+      </c>
+      <c r="H46" s="144">
+        <f>E46*750</f>
+        <v>2163.4615384615386</v>
+      </c>
+      <c r="I46" s="142">
+        <f t="shared" si="3"/>
+        <v>432.69230769230774</v>
+      </c>
+      <c r="J46" s="145">
+        <f>2.5+E46*0.1042</f>
+        <v>2.8005769230769229</v>
+      </c>
+      <c r="K46" s="155">
+        <f t="shared" si="4"/>
+        <v>216.40821678321677</v>
+      </c>
+      <c r="M46" s="143">
+        <v>260</v>
+      </c>
+      <c r="N46" s="151">
+        <f t="shared" si="5"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="O46" s="135">
+        <f t="shared" si="6"/>
+        <v>432.69230769230774</v>
+      </c>
+      <c r="P46" s="167">
+        <f t="shared" si="7"/>
+        <v>43.269230769230774</v>
+      </c>
+      <c r="Q46" s="167">
+        <f t="shared" si="7"/>
+        <v>86.538461538461547</v>
+      </c>
+      <c r="R46" s="167">
+        <f t="shared" si="7"/>
+        <v>129.80769230769232</v>
+      </c>
+      <c r="S46" s="167">
+        <f t="shared" si="7"/>
+        <v>173.07692307692309</v>
+      </c>
+      <c r="T46" s="167">
+        <f t="shared" si="7"/>
+        <v>216.34615384615387</v>
+      </c>
+    </row>
+    <row r="47" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="143">
+        <v>270</v>
+      </c>
+      <c r="E47" s="151">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="F47" s="142">
+        <f>H47/150</f>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="G47" s="142">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="H47" s="144">
+        <f>E47*750</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="I47" s="142">
+        <f t="shared" si="3"/>
+        <v>416.66666666666674</v>
+      </c>
+      <c r="J47" s="145">
+        <f>2.5+E47*0.1042</f>
+        <v>2.7894444444444444</v>
+      </c>
+      <c r="K47" s="155">
+        <f t="shared" si="4"/>
+        <v>215.54797979797979</v>
+      </c>
+      <c r="M47" s="143">
+        <v>270</v>
+      </c>
+      <c r="N47" s="151">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="O47" s="135">
+        <f t="shared" si="6"/>
+        <v>416.66666666666674</v>
+      </c>
+      <c r="P47" s="167">
+        <f t="shared" si="7"/>
+        <v>41.666666666666679</v>
+      </c>
+      <c r="Q47" s="167">
+        <f t="shared" si="7"/>
+        <v>83.333333333333357</v>
+      </c>
+      <c r="R47" s="167">
+        <f t="shared" si="7"/>
+        <v>125.00000000000001</v>
+      </c>
+      <c r="S47" s="167">
+        <f t="shared" si="7"/>
+        <v>166.66666666666671</v>
+      </c>
+      <c r="T47" s="167">
+        <f t="shared" si="7"/>
+        <v>208.33333333333337</v>
+      </c>
+    </row>
+    <row r="48" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D48" s="143">
+        <v>280</v>
+      </c>
+      <c r="E48" s="151">
+        <f>750/D48</f>
+        <v>2.6785714285714284</v>
+      </c>
+      <c r="F48" s="142">
+        <f>H48/150</f>
+        <v>13.392857142857142</v>
+      </c>
+      <c r="G48" s="142">
+        <f t="shared" si="2"/>
+        <v>2.6785714285714288</v>
+      </c>
+      <c r="H48" s="144">
+        <f>E48*750</f>
+        <v>2008.9285714285713</v>
+      </c>
+      <c r="I48" s="142">
+        <f t="shared" si="3"/>
+        <v>401.78571428571428</v>
+      </c>
+      <c r="J48" s="145">
+        <f>2.5+E48*0.1042</f>
+        <v>2.7791071428571428</v>
+      </c>
+      <c r="K48" s="155">
+        <f t="shared" si="4"/>
+        <v>214.74918831168833</v>
+      </c>
+      <c r="M48" s="143">
+        <v>280</v>
+      </c>
+      <c r="N48" s="151">
+        <f>750/M48</f>
+        <v>2.6785714285714284</v>
+      </c>
+      <c r="O48" s="135">
+        <f t="shared" si="6"/>
+        <v>401.78571428571428</v>
+      </c>
+      <c r="P48" s="167">
+        <f t="shared" si="7"/>
+        <v>40.178571428571423</v>
+      </c>
+      <c r="Q48" s="167">
+        <f t="shared" si="7"/>
+        <v>80.357142857142847</v>
+      </c>
+      <c r="R48" s="167">
+        <f t="shared" si="7"/>
+        <v>120.53571428571428</v>
+      </c>
+      <c r="S48" s="167">
+        <f t="shared" si="7"/>
+        <v>160.71428571428569</v>
+      </c>
+      <c r="T48" s="167">
+        <f t="shared" si="7"/>
+        <v>200.89285714285714</v>
+      </c>
+    </row>
+    <row r="49" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="143">
+        <v>290</v>
+      </c>
+      <c r="E49" s="151">
+        <f t="shared" si="1"/>
+        <v>2.5862068965517242</v>
+      </c>
+      <c r="F49" s="142">
+        <f>H49/150</f>
+        <v>12.931034482758621</v>
+      </c>
+      <c r="G49" s="142">
+        <f t="shared" si="2"/>
+        <v>2.5862068965517242</v>
+      </c>
+      <c r="H49" s="144">
+        <f>E49*750</f>
+        <v>1939.6551724137933</v>
+      </c>
+      <c r="I49" s="142">
+        <f t="shared" si="3"/>
+        <v>387.93103448275866</v>
+      </c>
+      <c r="J49" s="145">
+        <f>2.5+E49*0.1042</f>
+        <v>2.7694827586206898</v>
+      </c>
+      <c r="K49" s="155">
+        <f t="shared" si="4"/>
+        <v>214.00548589341696</v>
+      </c>
+      <c r="M49" s="143">
+        <v>290</v>
+      </c>
+      <c r="N49" s="151">
+        <f t="shared" si="5"/>
+        <v>2.5862068965517242</v>
+      </c>
+      <c r="O49" s="135">
+        <f t="shared" si="6"/>
+        <v>387.93103448275866</v>
+      </c>
+      <c r="P49" s="167">
+        <f t="shared" si="7"/>
+        <v>38.793103448275865</v>
+      </c>
+      <c r="Q49" s="167">
+        <f t="shared" si="7"/>
+        <v>77.58620689655173</v>
+      </c>
+      <c r="R49" s="167">
+        <f t="shared" si="7"/>
+        <v>116.37931034482759</v>
+      </c>
+      <c r="S49" s="167">
+        <f t="shared" si="7"/>
+        <v>155.17241379310346</v>
+      </c>
+      <c r="T49" s="167">
+        <f t="shared" si="7"/>
+        <v>193.96551724137936</v>
+      </c>
+    </row>
+    <row r="50" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="87">
+        <v>300</v>
+      </c>
+      <c r="E50" s="152">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="F50" s="146">
+        <f>H50/150</f>
+        <v>12.5</v>
+      </c>
+      <c r="G50" s="146">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H50" s="147">
+        <f>E50*750</f>
+        <v>1875</v>
+      </c>
+      <c r="I50" s="146">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="J50" s="148">
+        <f>2.5+E50*0.1042</f>
+        <v>2.7605</v>
+      </c>
+      <c r="K50" s="156">
+        <f t="shared" si="4"/>
+        <v>213.31136363636364</v>
+      </c>
+      <c r="M50" s="87">
+        <v>300</v>
+      </c>
+      <c r="N50" s="152">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="O50" s="135">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="P50" s="167">
+        <f t="shared" si="7"/>
+        <v>37.5</v>
+      </c>
+      <c r="Q50" s="167">
+        <f>$O50*Q$20/100</f>
+        <v>75</v>
+      </c>
+      <c r="R50" s="167">
+        <f t="shared" si="7"/>
+        <v>112.5</v>
+      </c>
+      <c r="S50" s="167">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="T50" s="167">
+        <f t="shared" si="7"/>
+        <v>187.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="H17:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8">
-        <v>0.375</v>
-      </c>
-      <c r="G8">
-        <v>4.625</v>
-      </c>
-      <c r="H8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9">
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+      <c r="J3">
+        <v>80</v>
+      </c>
+      <c r="K3">
+        <v>90</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="131" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="130">
+        <f>(1/(C3*10^3))*10^6</f>
+        <v>100</v>
+      </c>
+      <c r="D4" s="130">
+        <f t="shared" ref="D4:L4" si="0">(1/(D3*10^3))*10^6</f>
+        <v>50</v>
+      </c>
+      <c r="E4" s="130">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="F4" s="130">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="130">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H4" s="130">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I4" s="130">
+        <f t="shared" si="0"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J4" s="130">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="K4" s="130">
+        <f t="shared" si="0"/>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="L4" s="130">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M4" s="130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="131" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="130">
+        <f>C4*0.1</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="130">
+        <f t="shared" ref="D5:L5" si="1">D4*0.1</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="130">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333339</v>
+      </c>
+      <c r="F5" s="130">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10">
-        <v>104.2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>179</v>
+      <c r="G5" s="130">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="130">
+        <f t="shared" si="1"/>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="I5" s="130">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="J5" s="130">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="K5" s="130">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111114</v>
+      </c>
+      <c r="L5" s="130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="130">
+        <f>C5*2</f>
+        <v>20</v>
+      </c>
+      <c r="D6" s="130">
+        <f t="shared" ref="D6:L6" si="2">D5*2</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="130">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666679</v>
+      </c>
+      <c r="F6" s="130">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="130">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="130">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333339</v>
+      </c>
+      <c r="I6" s="130">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="J6" s="130">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="130">
+        <f t="shared" si="2"/>
+        <v>2.2222222222222228</v>
+      </c>
+      <c r="L6" s="130">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="130">
+        <f>C6+C4*0.1</f>
+        <v>30</v>
+      </c>
+      <c r="D7" s="130">
+        <f t="shared" ref="D7:L7" si="3">D6+D4*0.1</f>
+        <v>15</v>
+      </c>
+      <c r="E7" s="130">
+        <f t="shared" si="3"/>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="F7" s="130">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="G7" s="130">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="130">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="I7" s="130">
+        <f t="shared" si="3"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="J7" s="130">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="K7" s="130">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333339</v>
+      </c>
+      <c r="L7" s="130">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M7" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="168"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="184" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="184" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="187" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="169"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="169" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="182" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="173" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="169" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="182" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="173" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="188"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="158" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="159"/>
+      <c r="E6" s="178">
+        <v>0</v>
+      </c>
+      <c r="F6" s="179"/>
+      <c r="G6" s="180">
+        <v>300</v>
+      </c>
+      <c r="H6" s="178">
+        <v>0</v>
+      </c>
+      <c r="I6" s="179"/>
+      <c r="J6" s="180">
+        <v>300</v>
+      </c>
+      <c r="K6" s="181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="183" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="165">
+        <v>20</v>
+      </c>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164">
+        <v>100</v>
+      </c>
+      <c r="H7" s="165">
+        <v>20</v>
+      </c>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164">
+        <v>100</v>
+      </c>
+      <c r="K7" s="176" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="183"/>
+      <c r="D8" s="172" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="174" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="163">
+        <v>10</v>
+      </c>
+      <c r="G8" s="175" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="174" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="163">
+        <v>10</v>
+      </c>
+      <c r="J8" s="175" t="s">
+        <v>236</v>
+      </c>
+      <c r="K8" s="176" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="189" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="190"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="163">
+        <v>5</v>
+      </c>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="163">
+        <v>5</v>
+      </c>
+      <c r="J9" s="164"/>
+      <c r="K9" s="176" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="170"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="176"/>
+    </row>
+    <row r="11" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="169"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="177"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K4:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>